--- a/工作流/Prl_Stamp_用印申请流程设计.xlsx
+++ b/工作流/Prl_Stamp_用印申请流程设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7680" yWindow="0" windowWidth="18150" windowHeight="12390" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="8850" yWindow="0" windowWidth="18150" windowHeight="12390" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="功能概述" sheetId="1" r:id="rId1"/>
@@ -1306,12 +1306,12 @@
     <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
+    <t>StampType</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
     <t>create table Prl_Stamp_App (</t>
     <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>StampType</t>
-    <phoneticPr fontId="33" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2129,54 +2129,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -2192,6 +2144,54 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3157,35 +3157,35 @@
       <c r="F2" s="71"/>
     </row>
     <row r="3" spans="2:6" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="86"/>
+      <c r="C3" s="96"/>
       <c r="F3" s="71"/>
     </row>
     <row r="4" spans="2:6" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B4" s="87"/>
-      <c r="C4" s="88"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="98"/>
       <c r="F4" s="71"/>
     </row>
     <row r="5" spans="2:6" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B5" s="87"/>
-      <c r="C5" s="88"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="98"/>
       <c r="F5" s="71"/>
     </row>
     <row r="6" spans="2:6" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B6" s="87"/>
-      <c r="C6" s="88"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="98"/>
       <c r="F6" s="71"/>
     </row>
     <row r="7" spans="2:6" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B7" s="87"/>
-      <c r="C7" s="88"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="98"/>
       <c r="F7" s="71"/>
     </row>
     <row r="8" spans="2:6" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B8" s="89"/>
-      <c r="C8" s="90"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="100"/>
       <c r="F8" s="71"/>
     </row>
     <row r="10" spans="2:6" ht="15.75" x14ac:dyDescent="0.15">
@@ -3492,8 +3492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AE23" sqref="AE23"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3768,7 +3768,7 @@
       <c r="D21" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="109" t="s">
+      <c r="E21" s="93" t="s">
         <v>309</v>
       </c>
       <c r="F21" s="44"/>
@@ -3783,7 +3783,7 @@
       <c r="D22" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="109" t="s">
+      <c r="E22" s="93" t="s">
         <v>268</v>
       </c>
       <c r="F22" s="44"/>
@@ -3832,14 +3832,14 @@
       <c r="D26" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="109" t="s">
+      <c r="E26" s="93" t="s">
         <v>271</v>
       </c>
       <c r="F26" s="44"/>
     </row>
     <row r="27" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B27" s="42" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C27" s="42" t="s">
         <v>59</v>
@@ -3847,7 +3847,7 @@
       <c r="D27" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="E27" s="109" t="s">
+      <c r="E27" s="93" t="s">
         <v>272</v>
       </c>
       <c r="F27" s="44"/>
@@ -3862,7 +3862,7 @@
       <c r="D28" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="109" t="s">
+      <c r="E28" s="93" t="s">
         <v>275</v>
       </c>
       <c r="F28" s="44"/>
@@ -3899,7 +3899,7 @@
       <c r="D31" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="E31" s="109" t="s">
+      <c r="E31" s="93" t="s">
         <v>290</v>
       </c>
       <c r="F31" s="44"/>
@@ -3914,7 +3914,7 @@
       <c r="D32" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="E32" s="109" t="s">
+      <c r="E32" s="93" t="s">
         <v>291</v>
       </c>
       <c r="F32" s="44"/>
@@ -3929,7 +3929,7 @@
       <c r="D33" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="E33" s="109" t="s">
+      <c r="E33" s="93" t="s">
         <v>292</v>
       </c>
       <c r="F33" s="44"/>
@@ -3944,7 +3944,7 @@
       <c r="D34" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="E34" s="109" t="s">
+      <c r="E34" s="93" t="s">
         <v>293</v>
       </c>
       <c r="F34" s="44"/>
@@ -3959,7 +3959,7 @@
       <c r="D35" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="E35" s="109" t="s">
+      <c r="E35" s="93" t="s">
         <v>294</v>
       </c>
       <c r="F35" s="44"/>
@@ -3983,7 +3983,7 @@
       <c r="D37" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="E37" s="109" t="s">
+      <c r="E37" s="93" t="s">
         <v>295</v>
       </c>
       <c r="F37" s="44"/>
@@ -3998,7 +3998,7 @@
       <c r="D38" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="E38" s="109" t="s">
+      <c r="E38" s="93" t="s">
         <v>296</v>
       </c>
       <c r="F38" s="44"/>
@@ -4013,7 +4013,7 @@
       <c r="D39" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="E39" s="109" t="s">
+      <c r="E39" s="93" t="s">
         <v>297</v>
       </c>
       <c r="F39" s="44"/>
@@ -4028,7 +4028,7 @@
       <c r="D40" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="E40" s="109" t="s">
+      <c r="E40" s="93" t="s">
         <v>298</v>
       </c>
       <c r="F40" s="44"/>
@@ -4043,7 +4043,7 @@
       <c r="D41" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="E41" s="109" t="s">
+      <c r="E41" s="93" t="s">
         <v>299</v>
       </c>
       <c r="F41" s="44"/>
@@ -4071,7 +4071,7 @@
       <c r="D43" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="E43" s="109" t="s">
+      <c r="E43" s="93" t="s">
         <v>300</v>
       </c>
       <c r="F43" s="44"/>
@@ -4276,7 +4276,7 @@
       <c r="D61" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="E61" s="109" t="s">
+      <c r="E61" s="93" t="s">
         <v>259</v>
       </c>
       <c r="F61" s="54"/>
@@ -4517,230 +4517,230 @@
       <c r="F82" s="44"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="101" t="s">
+      <c r="A87" s="85" t="s">
         <v>240</v>
       </c>
-      <c r="B87" s="102"/>
-      <c r="C87" s="102"/>
-      <c r="D87" s="102"/>
-      <c r="E87" s="103"/>
+      <c r="B87" s="86"/>
+      <c r="C87" s="86"/>
+      <c r="D87" s="86"/>
+      <c r="E87" s="87"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="101" t="s">
-        <v>311</v>
-      </c>
-      <c r="B88" s="102"/>
-      <c r="C88" s="102"/>
-      <c r="D88" s="102"/>
-      <c r="E88" s="104" t="s">
+      <c r="A88" s="85" t="s">
+        <v>312</v>
+      </c>
+      <c r="B88" s="86"/>
+      <c r="C88" s="86"/>
+      <c r="D88" s="86"/>
+      <c r="E88" s="88" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="102"/>
-      <c r="B89" s="102" t="s">
+      <c r="A89" s="86"/>
+      <c r="B89" s="86" t="s">
         <v>242</v>
       </c>
-      <c r="C89" s="102" t="s">
+      <c r="C89" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="D89" s="102" t="s">
+      <c r="D89" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="E89" s="105" t="s">
+      <c r="E89" s="89" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="102"/>
-      <c r="B90" s="102" t="s">
+      <c r="A90" s="86"/>
+      <c r="B90" s="86" t="s">
         <v>95</v>
       </c>
-      <c r="C90" s="102" t="s">
+      <c r="C90" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="D90" s="102" t="s">
+      <c r="D90" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="E90" s="105" t="s">
+      <c r="E90" s="89" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="102"/>
-      <c r="B91" s="102" t="s">
+      <c r="A91" s="86"/>
+      <c r="B91" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="C91" s="102" t="s">
+      <c r="C91" s="86" t="s">
         <v>70</v>
       </c>
-      <c r="D91" s="102" t="s">
+      <c r="D91" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="E91" s="105" t="s">
+      <c r="E91" s="89" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="102"/>
-      <c r="B92" s="102" t="s">
+      <c r="A92" s="86"/>
+      <c r="B92" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="C92" s="102" t="s">
+      <c r="C92" s="86" t="s">
         <v>70</v>
       </c>
-      <c r="D92" s="102" t="s">
+      <c r="D92" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="E92" s="105" t="s">
+      <c r="E92" s="89" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="102"/>
-      <c r="B93" s="106" t="s">
+      <c r="A93" s="86"/>
+      <c r="B93" s="90" t="s">
         <v>73</v>
       </c>
-      <c r="C93" s="102"/>
-      <c r="D93" s="102"/>
-      <c r="E93" s="107"/>
+      <c r="C93" s="86"/>
+      <c r="D93" s="86"/>
+      <c r="E93" s="91"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="102"/>
-      <c r="B94" s="108" t="s">
+      <c r="A94" s="86"/>
+      <c r="B94" s="92" t="s">
         <v>255</v>
       </c>
-      <c r="C94" s="108" t="s">
+      <c r="C94" s="92" t="s">
         <v>256</v>
       </c>
-      <c r="D94" s="108" t="s">
+      <c r="D94" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="E94" s="109" t="s">
+      <c r="E94" s="93" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="102"/>
-      <c r="B95" s="108" t="s">
+      <c r="A95" s="86"/>
+      <c r="B95" s="92" t="s">
         <v>260</v>
       </c>
-      <c r="C95" s="108" t="s">
+      <c r="C95" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="D95" s="108" t="s">
+      <c r="D95" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="E95" s="109" t="s">
+      <c r="E95" s="93" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="102"/>
-      <c r="B96" s="108" t="s">
+      <c r="A96" s="86"/>
+      <c r="B96" s="92" t="s">
         <v>262</v>
       </c>
-      <c r="C96" s="108" t="s">
+      <c r="C96" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="D96" s="108" t="s">
+      <c r="D96" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="E96" s="109" t="s">
+      <c r="E96" s="93" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" s="102"/>
-      <c r="B97" s="108" t="s">
+      <c r="A97" s="86"/>
+      <c r="B97" s="92" t="s">
         <v>263</v>
       </c>
-      <c r="C97" s="108" t="s">
+      <c r="C97" s="92" t="s">
         <v>79</v>
       </c>
-      <c r="D97" s="108" t="s">
+      <c r="D97" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="E97" s="108"/>
+      <c r="E97" s="92"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" s="102"/>
-      <c r="B98" s="108" t="s">
+      <c r="A98" s="86"/>
+      <c r="B98" s="92" t="s">
         <v>264</v>
       </c>
-      <c r="C98" s="108" t="s">
+      <c r="C98" s="92" t="s">
         <v>79</v>
       </c>
-      <c r="D98" s="108" t="s">
+      <c r="D98" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="E98" s="109"/>
+      <c r="E98" s="93"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99" s="102"/>
-      <c r="B99" s="102" t="s">
+      <c r="A99" s="86"/>
+      <c r="B99" s="86" t="s">
         <v>248</v>
       </c>
-      <c r="C99" s="102" t="s">
+      <c r="C99" s="86" t="s">
         <v>249</v>
       </c>
-      <c r="D99" s="102" t="s">
+      <c r="D99" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="E99" s="105" t="s">
+      <c r="E99" s="89" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A100" s="102"/>
-      <c r="B100" s="102" t="s">
+      <c r="A100" s="86"/>
+      <c r="B100" s="86" t="s">
         <v>250</v>
       </c>
-      <c r="C100" s="102" t="s">
+      <c r="C100" s="86" t="s">
         <v>251</v>
       </c>
-      <c r="D100" s="102" t="s">
+      <c r="D100" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="E100" s="105"/>
+      <c r="E100" s="89"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101" s="102"/>
-      <c r="B101" s="102" t="s">
+      <c r="A101" s="86"/>
+      <c r="B101" s="86" t="s">
         <v>252</v>
       </c>
-      <c r="C101" s="102" t="s">
+      <c r="C101" s="86" t="s">
         <v>251</v>
       </c>
-      <c r="D101" s="102" t="s">
+      <c r="D101" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="E101" s="105"/>
+      <c r="E101" s="89"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102" s="102"/>
-      <c r="B102" s="102" t="s">
+      <c r="A102" s="86"/>
+      <c r="B102" s="86" t="s">
         <v>253</v>
       </c>
-      <c r="C102" s="102"/>
-      <c r="D102" s="102"/>
-      <c r="E102" s="107"/>
+      <c r="C102" s="86"/>
+      <c r="D102" s="86"/>
+      <c r="E102" s="91"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103" s="102"/>
-      <c r="B103" s="102" t="s">
+      <c r="A103" s="86"/>
+      <c r="B103" s="86" t="s">
         <v>93</v>
       </c>
-      <c r="C103" s="102"/>
-      <c r="D103" s="102"/>
-      <c r="E103" s="107"/>
+      <c r="C103" s="86"/>
+      <c r="D103" s="86"/>
+      <c r="E103" s="91"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A104" s="110"/>
-      <c r="B104" s="110"/>
-      <c r="C104" s="110"/>
-      <c r="D104" s="110"/>
-      <c r="E104" s="110"/>
+      <c r="A104" s="94"/>
+      <c r="B104" s="94"/>
+      <c r="C104" s="94"/>
+      <c r="D104" s="94"/>
+      <c r="E104" s="94"/>
     </row>
   </sheetData>
   <phoneticPr fontId="33" type="noConversion"/>
@@ -4838,17 +4838,17 @@
       <c r="H4" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="I4" s="96" t="s">
+      <c r="I4" s="101" t="s">
         <v>132</v>
       </c>
-      <c r="J4" s="96"/>
-      <c r="K4" s="100" t="s">
+      <c r="J4" s="101"/>
+      <c r="K4" s="105" t="s">
         <v>57</v>
       </c>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
-      <c r="N4" s="100"/>
-      <c r="O4" s="100"/>
+      <c r="L4" s="105"/>
+      <c r="M4" s="105"/>
+      <c r="N4" s="105"/>
+      <c r="O4" s="105"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B5" s="13" t="s">
@@ -4860,15 +4860,15 @@
       <c r="H5" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="I5" s="96" t="s">
+      <c r="I5" s="101" t="s">
         <v>136</v>
       </c>
-      <c r="J5" s="96"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="100"/>
-      <c r="O5" s="100"/>
+      <c r="J5" s="101"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="105"/>
+      <c r="M5" s="105"/>
+      <c r="N5" s="105"/>
+      <c r="O5" s="105"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B6" s="13"/>
@@ -4878,15 +4878,15 @@
       <c r="H6" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="I6" s="96" t="s">
+      <c r="I6" s="101" t="s">
         <v>139</v>
       </c>
-      <c r="J6" s="96"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
-      <c r="N6" s="100"/>
-      <c r="O6" s="100"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="105"/>
+      <c r="M6" s="105"/>
+      <c r="N6" s="105"/>
+      <c r="O6" s="105"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B7" s="13" t="s">
@@ -4917,19 +4917,19 @@
       <c r="H9" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="97" t="s">
+      <c r="I9" s="102" t="s">
         <v>144</v>
       </c>
-      <c r="J9" s="98"/>
-      <c r="K9" s="98"/>
+      <c r="J9" s="103"/>
+      <c r="K9" s="103"/>
       <c r="L9" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="M9" s="99" t="s">
+      <c r="M9" s="104" t="s">
         <v>145</v>
       </c>
-      <c r="N9" s="99"/>
-      <c r="O9" s="99"/>
+      <c r="N9" s="104"/>
+      <c r="O9" s="104"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B10" s="13" t="s">
@@ -4938,18 +4938,18 @@
       <c r="C10" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="H10" s="91" t="s">
+      <c r="H10" s="108" t="s">
         <v>90</v>
       </c>
-      <c r="I10" s="92" t="s">
+      <c r="I10" s="109" t="s">
         <v>148</v>
       </c>
-      <c r="J10" s="92"/>
-      <c r="K10" s="92"/>
-      <c r="L10" s="92"/>
-      <c r="M10" s="92"/>
-      <c r="N10" s="92"/>
-      <c r="O10" s="92"/>
+      <c r="J10" s="109"/>
+      <c r="K10" s="109"/>
+      <c r="L10" s="109"/>
+      <c r="M10" s="109"/>
+      <c r="N10" s="109"/>
+      <c r="O10" s="109"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B11" s="13" t="s">
@@ -4958,14 +4958,14 @@
       <c r="C11" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="H11" s="91"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="92"/>
-      <c r="M11" s="92"/>
-      <c r="N11" s="92"/>
-      <c r="O11" s="92"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="109"/>
+      <c r="K11" s="109"/>
+      <c r="L11" s="109"/>
+      <c r="M11" s="109"/>
+      <c r="N11" s="109"/>
+      <c r="O11" s="109"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B12" s="13" t="s">
@@ -4974,14 +4974,14 @@
       <c r="C12" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="H12" s="91"/>
-      <c r="I12" s="92"/>
-      <c r="J12" s="92"/>
-      <c r="K12" s="92"/>
-      <c r="L12" s="92"/>
-      <c r="M12" s="92"/>
-      <c r="N12" s="92"/>
-      <c r="O12" s="92"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="109"/>
+      <c r="L12" s="109"/>
+      <c r="M12" s="109"/>
+      <c r="N12" s="109"/>
+      <c r="O12" s="109"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B13" s="13" t="s">
@@ -4990,38 +4990,38 @@
       <c r="C13" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="H13" s="91" t="s">
+      <c r="H13" s="108" t="s">
         <v>114</v>
       </c>
-      <c r="I13" s="93"/>
-      <c r="J13" s="93"/>
-      <c r="K13" s="93"/>
-      <c r="L13" s="93"/>
-      <c r="M13" s="93"/>
-      <c r="N13" s="93"/>
-      <c r="O13" s="93"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="110"/>
+      <c r="K13" s="110"/>
+      <c r="L13" s="110"/>
+      <c r="M13" s="110"/>
+      <c r="N13" s="110"/>
+      <c r="O13" s="110"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="H14" s="91"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="93"/>
-      <c r="K14" s="93"/>
-      <c r="L14" s="93"/>
-      <c r="M14" s="93"/>
-      <c r="N14" s="93"/>
-      <c r="O14" s="93"/>
+      <c r="H14" s="108"/>
+      <c r="I14" s="110"/>
+      <c r="J14" s="110"/>
+      <c r="K14" s="110"/>
+      <c r="L14" s="110"/>
+      <c r="M14" s="110"/>
+      <c r="N14" s="110"/>
+      <c r="O14" s="110"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="H15" s="91"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="93"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="110"/>
+      <c r="J15" s="110"/>
       <c r="K15" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="L15" s="93"/>
-      <c r="M15" s="93"/>
-      <c r="N15" s="93"/>
-      <c r="O15" s="93"/>
+      <c r="L15" s="110"/>
+      <c r="M15" s="110"/>
+      <c r="N15" s="110"/>
+      <c r="O15" s="110"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
@@ -5206,12 +5206,12 @@
       <c r="K24" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="L24" s="94" t="s">
+      <c r="L24" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="M24" s="95"/>
-      <c r="N24" s="95"/>
-      <c r="O24" s="95"/>
+      <c r="M24" s="107"/>
+      <c r="N24" s="107"/>
+      <c r="O24" s="107"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B25" s="13" t="s">
@@ -5232,12 +5232,12 @@
       <c r="K25" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="L25" s="96" t="s">
+      <c r="L25" s="101" t="s">
         <v>169</v>
       </c>
-      <c r="M25" s="96"/>
-      <c r="N25" s="96"/>
-      <c r="O25" s="96"/>
+      <c r="M25" s="101"/>
+      <c r="N25" s="101"/>
+      <c r="O25" s="101"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B26" s="13"/>
@@ -5256,12 +5256,12 @@
       <c r="K26" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="L26" s="96" t="s">
+      <c r="L26" s="101" t="s">
         <v>169</v>
       </c>
-      <c r="M26" s="96"/>
-      <c r="N26" s="96"/>
-      <c r="O26" s="96"/>
+      <c r="M26" s="101"/>
+      <c r="N26" s="101"/>
+      <c r="O26" s="101"/>
     </row>
     <row r="28" spans="1:22" ht="13.5" x14ac:dyDescent="0.15">
       <c r="H28" s="20" t="s">
@@ -5285,19 +5285,19 @@
       <c r="H29" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="I29" s="97" t="s">
+      <c r="I29" s="102" t="s">
         <v>188</v>
       </c>
-      <c r="J29" s="98"/>
-      <c r="K29" s="98"/>
+      <c r="J29" s="103"/>
+      <c r="K29" s="103"/>
       <c r="L29" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="M29" s="97" t="s">
+      <c r="M29" s="102" t="s">
         <v>189</v>
       </c>
-      <c r="N29" s="98"/>
-      <c r="O29" s="98"/>
+      <c r="N29" s="103"/>
+      <c r="O29" s="103"/>
       <c r="S29"/>
       <c r="T29"/>
       <c r="U29"/>
@@ -5541,23 +5541,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="I10:O12"/>
+    <mergeCell ref="I13:K14"/>
+    <mergeCell ref="L13:O15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="L26:O26"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="M29:O29"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="I9:K9"/>
     <mergeCell ref="M9:O9"/>
     <mergeCell ref="K4:O6"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="L25:O25"/>
-    <mergeCell ref="L26:O26"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="I10:O12"/>
-    <mergeCell ref="I13:K14"/>
-    <mergeCell ref="L13:O15"/>
-    <mergeCell ref="I15:J15"/>
   </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/工作流/Prl_Stamp_用印申请流程设计.xlsx
+++ b/工作流/Prl_Stamp_用印申请流程设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8850" yWindow="0" windowWidth="18150" windowHeight="12390" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="10020" yWindow="0" windowWidth="18150" windowHeight="12390" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="功能概述" sheetId="1" r:id="rId1"/>
@@ -356,6 +356,7 @@
       <rPr>
         <sz val="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>企业</t>
@@ -384,6 +385,7 @@
       <rPr>
         <sz val="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>流程实例</t>
@@ -608,6 +610,7 @@
       <rPr>
         <sz val="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>附件</t>
@@ -1446,6 +1449,7 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1459,11 +1463,13 @@
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2163,6 +2169,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2177,21 +2198,6 @@
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4838,17 +4844,17 @@
       <c r="H4" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="I4" s="101" t="s">
+      <c r="I4" s="106" t="s">
         <v>132</v>
       </c>
-      <c r="J4" s="101"/>
-      <c r="K4" s="105" t="s">
+      <c r="J4" s="106"/>
+      <c r="K4" s="110" t="s">
         <v>57</v>
       </c>
-      <c r="L4" s="105"/>
-      <c r="M4" s="105"/>
-      <c r="N4" s="105"/>
-      <c r="O4" s="105"/>
+      <c r="L4" s="110"/>
+      <c r="M4" s="110"/>
+      <c r="N4" s="110"/>
+      <c r="O4" s="110"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B5" s="13" t="s">
@@ -4860,15 +4866,15 @@
       <c r="H5" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="I5" s="101" t="s">
+      <c r="I5" s="106" t="s">
         <v>136</v>
       </c>
-      <c r="J5" s="101"/>
-      <c r="K5" s="105"/>
-      <c r="L5" s="105"/>
-      <c r="M5" s="105"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="105"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="110"/>
+      <c r="L5" s="110"/>
+      <c r="M5" s="110"/>
+      <c r="N5" s="110"/>
+      <c r="O5" s="110"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B6" s="13"/>
@@ -4878,15 +4884,15 @@
       <c r="H6" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="I6" s="101" t="s">
+      <c r="I6" s="106" t="s">
         <v>139</v>
       </c>
-      <c r="J6" s="101"/>
-      <c r="K6" s="105"/>
-      <c r="L6" s="105"/>
-      <c r="M6" s="105"/>
-      <c r="N6" s="105"/>
-      <c r="O6" s="105"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="110"/>
+      <c r="L6" s="110"/>
+      <c r="M6" s="110"/>
+      <c r="N6" s="110"/>
+      <c r="O6" s="110"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B7" s="13" t="s">
@@ -4917,19 +4923,19 @@
       <c r="H9" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="102" t="s">
+      <c r="I9" s="107" t="s">
         <v>144</v>
       </c>
-      <c r="J9" s="103"/>
-      <c r="K9" s="103"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="108"/>
       <c r="L9" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="M9" s="104" t="s">
+      <c r="M9" s="109" t="s">
         <v>145</v>
       </c>
-      <c r="N9" s="104"/>
-      <c r="O9" s="104"/>
+      <c r="N9" s="109"/>
+      <c r="O9" s="109"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B10" s="13" t="s">
@@ -4938,18 +4944,18 @@
       <c r="C10" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="H10" s="108" t="s">
+      <c r="H10" s="101" t="s">
         <v>90</v>
       </c>
-      <c r="I10" s="109" t="s">
+      <c r="I10" s="102" t="s">
         <v>148</v>
       </c>
-      <c r="J10" s="109"/>
-      <c r="K10" s="109"/>
-      <c r="L10" s="109"/>
-      <c r="M10" s="109"/>
-      <c r="N10" s="109"/>
-      <c r="O10" s="109"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="102"/>
+      <c r="N10" s="102"/>
+      <c r="O10" s="102"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B11" s="13" t="s">
@@ -4958,14 +4964,14 @@
       <c r="C11" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="H11" s="108"/>
-      <c r="I11" s="109"/>
-      <c r="J11" s="109"/>
-      <c r="K11" s="109"/>
-      <c r="L11" s="109"/>
-      <c r="M11" s="109"/>
-      <c r="N11" s="109"/>
-      <c r="O11" s="109"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="102"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="102"/>
+      <c r="M11" s="102"/>
+      <c r="N11" s="102"/>
+      <c r="O11" s="102"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B12" s="13" t="s">
@@ -4974,14 +4980,14 @@
       <c r="C12" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="H12" s="108"/>
-      <c r="I12" s="109"/>
-      <c r="J12" s="109"/>
-      <c r="K12" s="109"/>
-      <c r="L12" s="109"/>
-      <c r="M12" s="109"/>
-      <c r="N12" s="109"/>
-      <c r="O12" s="109"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="102"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="102"/>
+      <c r="L12" s="102"/>
+      <c r="M12" s="102"/>
+      <c r="N12" s="102"/>
+      <c r="O12" s="102"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B13" s="13" t="s">
@@ -4990,38 +4996,38 @@
       <c r="C13" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="H13" s="108" t="s">
+      <c r="H13" s="101" t="s">
         <v>114</v>
       </c>
-      <c r="I13" s="110"/>
-      <c r="J13" s="110"/>
-      <c r="K13" s="110"/>
-      <c r="L13" s="110"/>
-      <c r="M13" s="110"/>
-      <c r="N13" s="110"/>
-      <c r="O13" s="110"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="103"/>
+      <c r="L13" s="103"/>
+      <c r="M13" s="103"/>
+      <c r="N13" s="103"/>
+      <c r="O13" s="103"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="H14" s="108"/>
-      <c r="I14" s="110"/>
-      <c r="J14" s="110"/>
-      <c r="K14" s="110"/>
-      <c r="L14" s="110"/>
-      <c r="M14" s="110"/>
-      <c r="N14" s="110"/>
-      <c r="O14" s="110"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="103"/>
+      <c r="J14" s="103"/>
+      <c r="K14" s="103"/>
+      <c r="L14" s="103"/>
+      <c r="M14" s="103"/>
+      <c r="N14" s="103"/>
+      <c r="O14" s="103"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="H15" s="108"/>
-      <c r="I15" s="110"/>
-      <c r="J15" s="110"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="103"/>
+      <c r="J15" s="103"/>
       <c r="K15" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="L15" s="110"/>
-      <c r="M15" s="110"/>
-      <c r="N15" s="110"/>
-      <c r="O15" s="110"/>
+      <c r="L15" s="103"/>
+      <c r="M15" s="103"/>
+      <c r="N15" s="103"/>
+      <c r="O15" s="103"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
@@ -5206,12 +5212,12 @@
       <c r="K24" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="L24" s="106" t="s">
+      <c r="L24" s="104" t="s">
         <v>111</v>
       </c>
-      <c r="M24" s="107"/>
-      <c r="N24" s="107"/>
-      <c r="O24" s="107"/>
+      <c r="M24" s="105"/>
+      <c r="N24" s="105"/>
+      <c r="O24" s="105"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B25" s="13" t="s">
@@ -5232,12 +5238,12 @@
       <c r="K25" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="L25" s="101" t="s">
+      <c r="L25" s="106" t="s">
         <v>169</v>
       </c>
-      <c r="M25" s="101"/>
-      <c r="N25" s="101"/>
-      <c r="O25" s="101"/>
+      <c r="M25" s="106"/>
+      <c r="N25" s="106"/>
+      <c r="O25" s="106"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B26" s="13"/>
@@ -5256,12 +5262,12 @@
       <c r="K26" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="L26" s="101" t="s">
+      <c r="L26" s="106" t="s">
         <v>169</v>
       </c>
-      <c r="M26" s="101"/>
-      <c r="N26" s="101"/>
-      <c r="O26" s="101"/>
+      <c r="M26" s="106"/>
+      <c r="N26" s="106"/>
+      <c r="O26" s="106"/>
     </row>
     <row r="28" spans="1:22" ht="13.5" x14ac:dyDescent="0.15">
       <c r="H28" s="20" t="s">
@@ -5285,19 +5291,19 @@
       <c r="H29" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="I29" s="102" t="s">
+      <c r="I29" s="107" t="s">
         <v>188</v>
       </c>
-      <c r="J29" s="103"/>
-      <c r="K29" s="103"/>
+      <c r="J29" s="108"/>
+      <c r="K29" s="108"/>
       <c r="L29" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="M29" s="102" t="s">
+      <c r="M29" s="107" t="s">
         <v>189</v>
       </c>
-      <c r="N29" s="103"/>
-      <c r="O29" s="103"/>
+      <c r="N29" s="108"/>
+      <c r="O29" s="108"/>
       <c r="S29"/>
       <c r="T29"/>
       <c r="U29"/>
@@ -5541,23 +5547,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="K4:O6"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="L26:O26"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="M29:O29"/>
     <mergeCell ref="H10:H12"/>
     <mergeCell ref="H13:H15"/>
     <mergeCell ref="I10:O12"/>
     <mergeCell ref="I13:K14"/>
     <mergeCell ref="L13:O15"/>
     <mergeCell ref="I15:J15"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="L25:O25"/>
-    <mergeCell ref="L26:O26"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="K4:O6"/>
   </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/工作流/Prl_Stamp_用印申请流程设计.xlsx
+++ b/工作流/Prl_Stamp_用印申请流程设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10020" yWindow="0" windowWidth="18150" windowHeight="12390" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="11190" yWindow="0" windowWidth="18150" windowHeight="12390" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="功能概述" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="312">
   <si>
     <t>标题信息</t>
   </si>
@@ -1274,10 +1274,6 @@
   </si>
   <si>
     <t>varchar2(128)</t>
-    <phoneticPr fontId="33" type="noConversion"/>
-  </si>
-  <si>
-    <t>number(20,2)</t>
     <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
@@ -2169,6 +2165,27 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2177,27 +2194,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3498,8 +3494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3766,16 +3762,16 @@
     </row>
     <row r="21" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B21" s="42" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D21" s="42" t="s">
         <v>67</v>
       </c>
       <c r="E21" s="93" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F21" s="44"/>
     </row>
@@ -3845,7 +3841,7 @@
     </row>
     <row r="27" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B27" s="42" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C27" s="42" t="s">
         <v>59</v>
@@ -3878,7 +3874,7 @@
         <v>274</v>
       </c>
       <c r="C29" s="42" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D29" s="42" t="s">
         <v>67</v>
@@ -3900,7 +3896,7 @@
         <v>277</v>
       </c>
       <c r="C31" s="42" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D31" s="42" t="s">
         <v>67</v>
@@ -3915,7 +3911,7 @@
         <v>278</v>
       </c>
       <c r="C32" s="42" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D32" s="42" t="s">
         <v>67</v>
@@ -3984,7 +3980,7 @@
         <v>283</v>
       </c>
       <c r="C37" s="42" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D37" s="42" t="s">
         <v>67</v>
@@ -4014,7 +4010,7 @@
         <v>285</v>
       </c>
       <c r="C39" s="42" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D39" s="42" t="s">
         <v>67</v>
@@ -4533,7 +4529,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="85" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B88" s="86"/>
       <c r="C88" s="86"/>
@@ -4844,17 +4840,17 @@
       <c r="H4" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="I4" s="106" t="s">
+      <c r="I4" s="101" t="s">
         <v>132</v>
       </c>
-      <c r="J4" s="106"/>
-      <c r="K4" s="110" t="s">
+      <c r="J4" s="101"/>
+      <c r="K4" s="105" t="s">
         <v>57</v>
       </c>
-      <c r="L4" s="110"/>
-      <c r="M4" s="110"/>
-      <c r="N4" s="110"/>
-      <c r="O4" s="110"/>
+      <c r="L4" s="105"/>
+      <c r="M4" s="105"/>
+      <c r="N4" s="105"/>
+      <c r="O4" s="105"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B5" s="13" t="s">
@@ -4866,15 +4862,15 @@
       <c r="H5" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="I5" s="106" t="s">
+      <c r="I5" s="101" t="s">
         <v>136</v>
       </c>
-      <c r="J5" s="106"/>
-      <c r="K5" s="110"/>
-      <c r="L5" s="110"/>
-      <c r="M5" s="110"/>
-      <c r="N5" s="110"/>
-      <c r="O5" s="110"/>
+      <c r="J5" s="101"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="105"/>
+      <c r="M5" s="105"/>
+      <c r="N5" s="105"/>
+      <c r="O5" s="105"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B6" s="13"/>
@@ -4884,15 +4880,15 @@
       <c r="H6" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="I6" s="106" t="s">
+      <c r="I6" s="101" t="s">
         <v>139</v>
       </c>
-      <c r="J6" s="106"/>
-      <c r="K6" s="110"/>
-      <c r="L6" s="110"/>
-      <c r="M6" s="110"/>
-      <c r="N6" s="110"/>
-      <c r="O6" s="110"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="105"/>
+      <c r="M6" s="105"/>
+      <c r="N6" s="105"/>
+      <c r="O6" s="105"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B7" s="13" t="s">
@@ -4923,19 +4919,19 @@
       <c r="H9" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="107" t="s">
+      <c r="I9" s="102" t="s">
         <v>144</v>
       </c>
-      <c r="J9" s="108"/>
-      <c r="K9" s="108"/>
+      <c r="J9" s="103"/>
+      <c r="K9" s="103"/>
       <c r="L9" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="M9" s="109" t="s">
+      <c r="M9" s="104" t="s">
         <v>145</v>
       </c>
-      <c r="N9" s="109"/>
-      <c r="O9" s="109"/>
+      <c r="N9" s="104"/>
+      <c r="O9" s="104"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B10" s="13" t="s">
@@ -4944,18 +4940,18 @@
       <c r="C10" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="H10" s="101" t="s">
+      <c r="H10" s="108" t="s">
         <v>90</v>
       </c>
-      <c r="I10" s="102" t="s">
+      <c r="I10" s="109" t="s">
         <v>148</v>
       </c>
-      <c r="J10" s="102"/>
-      <c r="K10" s="102"/>
-      <c r="L10" s="102"/>
-      <c r="M10" s="102"/>
-      <c r="N10" s="102"/>
-      <c r="O10" s="102"/>
+      <c r="J10" s="109"/>
+      <c r="K10" s="109"/>
+      <c r="L10" s="109"/>
+      <c r="M10" s="109"/>
+      <c r="N10" s="109"/>
+      <c r="O10" s="109"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B11" s="13" t="s">
@@ -4964,14 +4960,14 @@
       <c r="C11" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="H11" s="101"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="102"/>
-      <c r="K11" s="102"/>
-      <c r="L11" s="102"/>
-      <c r="M11" s="102"/>
-      <c r="N11" s="102"/>
-      <c r="O11" s="102"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="109"/>
+      <c r="K11" s="109"/>
+      <c r="L11" s="109"/>
+      <c r="M11" s="109"/>
+      <c r="N11" s="109"/>
+      <c r="O11" s="109"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B12" s="13" t="s">
@@ -4980,14 +4976,14 @@
       <c r="C12" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="H12" s="101"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="102"/>
-      <c r="K12" s="102"/>
-      <c r="L12" s="102"/>
-      <c r="M12" s="102"/>
-      <c r="N12" s="102"/>
-      <c r="O12" s="102"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="109"/>
+      <c r="L12" s="109"/>
+      <c r="M12" s="109"/>
+      <c r="N12" s="109"/>
+      <c r="O12" s="109"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B13" s="13" t="s">
@@ -4996,38 +4992,38 @@
       <c r="C13" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="H13" s="101" t="s">
+      <c r="H13" s="108" t="s">
         <v>114</v>
       </c>
-      <c r="I13" s="103"/>
-      <c r="J13" s="103"/>
-      <c r="K13" s="103"/>
-      <c r="L13" s="103"/>
-      <c r="M13" s="103"/>
-      <c r="N13" s="103"/>
-      <c r="O13" s="103"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="110"/>
+      <c r="K13" s="110"/>
+      <c r="L13" s="110"/>
+      <c r="M13" s="110"/>
+      <c r="N13" s="110"/>
+      <c r="O13" s="110"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="H14" s="101"/>
-      <c r="I14" s="103"/>
-      <c r="J14" s="103"/>
-      <c r="K14" s="103"/>
-      <c r="L14" s="103"/>
-      <c r="M14" s="103"/>
-      <c r="N14" s="103"/>
-      <c r="O14" s="103"/>
+      <c r="H14" s="108"/>
+      <c r="I14" s="110"/>
+      <c r="J14" s="110"/>
+      <c r="K14" s="110"/>
+      <c r="L14" s="110"/>
+      <c r="M14" s="110"/>
+      <c r="N14" s="110"/>
+      <c r="O14" s="110"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="H15" s="101"/>
-      <c r="I15" s="103"/>
-      <c r="J15" s="103"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="110"/>
+      <c r="J15" s="110"/>
       <c r="K15" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="L15" s="103"/>
-      <c r="M15" s="103"/>
-      <c r="N15" s="103"/>
-      <c r="O15" s="103"/>
+      <c r="L15" s="110"/>
+      <c r="M15" s="110"/>
+      <c r="N15" s="110"/>
+      <c r="O15" s="110"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
@@ -5212,12 +5208,12 @@
       <c r="K24" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="L24" s="104" t="s">
+      <c r="L24" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="M24" s="105"/>
-      <c r="N24" s="105"/>
-      <c r="O24" s="105"/>
+      <c r="M24" s="107"/>
+      <c r="N24" s="107"/>
+      <c r="O24" s="107"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B25" s="13" t="s">
@@ -5238,12 +5234,12 @@
       <c r="K25" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="L25" s="106" t="s">
+      <c r="L25" s="101" t="s">
         <v>169</v>
       </c>
-      <c r="M25" s="106"/>
-      <c r="N25" s="106"/>
-      <c r="O25" s="106"/>
+      <c r="M25" s="101"/>
+      <c r="N25" s="101"/>
+      <c r="O25" s="101"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B26" s="13"/>
@@ -5262,12 +5258,12 @@
       <c r="K26" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="L26" s="106" t="s">
+      <c r="L26" s="101" t="s">
         <v>169</v>
       </c>
-      <c r="M26" s="106"/>
-      <c r="N26" s="106"/>
-      <c r="O26" s="106"/>
+      <c r="M26" s="101"/>
+      <c r="N26" s="101"/>
+      <c r="O26" s="101"/>
     </row>
     <row r="28" spans="1:22" ht="13.5" x14ac:dyDescent="0.15">
       <c r="H28" s="20" t="s">
@@ -5291,19 +5287,19 @@
       <c r="H29" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="I29" s="107" t="s">
+      <c r="I29" s="102" t="s">
         <v>188</v>
       </c>
-      <c r="J29" s="108"/>
-      <c r="K29" s="108"/>
+      <c r="J29" s="103"/>
+      <c r="K29" s="103"/>
       <c r="L29" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="M29" s="107" t="s">
+      <c r="M29" s="102" t="s">
         <v>189</v>
       </c>
-      <c r="N29" s="108"/>
-      <c r="O29" s="108"/>
+      <c r="N29" s="103"/>
+      <c r="O29" s="103"/>
       <c r="S29"/>
       <c r="T29"/>
       <c r="U29"/>
@@ -5547,23 +5543,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="I10:O12"/>
+    <mergeCell ref="I13:K14"/>
+    <mergeCell ref="L13:O15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="L26:O26"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="M29:O29"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="I9:K9"/>
     <mergeCell ref="M9:O9"/>
     <mergeCell ref="K4:O6"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="L25:O25"/>
-    <mergeCell ref="L26:O26"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="I10:O12"/>
-    <mergeCell ref="I13:K14"/>
-    <mergeCell ref="L13:O15"/>
-    <mergeCell ref="I15:J15"/>
   </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/工作流/Prl_Stamp_用印申请流程设计.xlsx
+++ b/工作流/Prl_Stamp_用印申请流程设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11190" yWindow="0" windowWidth="18150" windowHeight="12390" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="12372" yWindow="0" windowWidth="18156" windowHeight="12396" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="功能概述" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="318">
   <si>
     <t>标题信息</t>
   </si>
@@ -1311,6 +1311,30 @@
   <si>
     <t>create table Prl_Stamp_App (</t>
     <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>drop table Prl_Stamp;</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table Prl_Stamp (</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>constraint PK_Prl_Stamp primary key(EntGid, Gid)</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>drop table WF_Prl_Stamp_Attach2;</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table WF_Prl_Stamp_Attach2 (</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>constraint PK_WF_Prl_Stamp_Attach2 primary key(EntGid, FlowGid, Gid)</t>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2165,6 +2189,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2179,21 +2218,6 @@
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2226,9 +2250,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>3752850</xdr:colOff>
+          <xdr:colOff>3756660</xdr:colOff>
           <xdr:row>42</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2892,23 +2916,23 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="70"/>
-    <col min="2" max="2" width="13.875" style="70" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="70" customWidth="1"/>
     <col min="3" max="3" width="53" style="64" customWidth="1"/>
-    <col min="4" max="4" width="24.875" style="70" customWidth="1"/>
+    <col min="4" max="4" width="24.88671875" style="70" customWidth="1"/>
     <col min="5" max="5" width="9" style="70"/>
-    <col min="6" max="6" width="12.25" style="71" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" style="71" customWidth="1"/>
     <col min="7" max="16384" width="9" style="70"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:6" ht="16.2" x14ac:dyDescent="0.25">
       <c r="B2" s="72" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="73" t="s">
         <v>1</v>
       </c>
@@ -2916,7 +2940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="73" t="s">
         <v>3</v>
       </c>
@@ -2924,7 +2948,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="73" t="s">
         <v>5</v>
       </c>
@@ -2932,7 +2956,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="73" t="s">
         <v>7</v>
       </c>
@@ -2940,7 +2964,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="73" t="s">
         <v>9</v>
       </c>
@@ -2948,7 +2972,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:6" ht="16.2" x14ac:dyDescent="0.25">
       <c r="B10" s="72" t="s">
         <v>11</v>
       </c>
@@ -2957,7 +2981,7 @@
       <c r="E10" s="75"/>
       <c r="F10" s="76"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="77" t="s">
         <v>12</v>
       </c>
@@ -2974,7 +2998,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="78">
         <v>0.1</v>
       </c>
@@ -2989,7 +3013,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="78">
         <v>0.2</v>
       </c>
@@ -2998,7 +3022,7 @@
       <c r="E13" s="81"/>
       <c r="F13" s="82"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="78">
         <v>0.3</v>
       </c>
@@ -3007,7 +3031,7 @@
       <c r="E14" s="81"/>
       <c r="F14" s="82"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="78">
         <v>0.4</v>
       </c>
@@ -3016,13 +3040,13 @@
       <c r="E15" s="81"/>
       <c r="F15" s="82"/>
     </row>
-    <row r="17" spans="2:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:3" ht="16.2" x14ac:dyDescent="0.25">
       <c r="B17" s="72" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="75"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="77" t="s">
         <v>20</v>
       </c>
@@ -3030,30 +3054,30 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="78">
         <v>1</v>
       </c>
       <c r="C19" s="81"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="78">
         <v>2</v>
       </c>
       <c r="C20" s="81"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="78">
         <v>3</v>
       </c>
       <c r="C21" s="81"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="72" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="77" t="s">
         <v>20</v>
       </c>
@@ -3061,7 +3085,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="78">
         <v>1</v>
       </c>
@@ -3069,7 +3093,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="78">
         <v>2</v>
       </c>
@@ -3077,7 +3101,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="78">
         <v>3</v>
       </c>
@@ -3085,7 +3109,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="78">
         <v>4</v>
       </c>
@@ -3093,7 +3117,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="78">
         <v>5</v>
       </c>
@@ -3101,7 +3125,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="78">
         <v>6</v>
       </c>
@@ -3109,7 +3133,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="78">
         <v>7</v>
       </c>
@@ -3143,90 +3167,90 @@
       <selection activeCell="B3" sqref="B3:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="55"/>
-    <col min="2" max="2" width="12.625" style="55" customWidth="1"/>
-    <col min="3" max="3" width="85.5" style="55" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="55" customWidth="1"/>
+    <col min="3" max="3" width="85.44140625" style="55" customWidth="1"/>
     <col min="4" max="16384" width="9" style="55"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:6" s="70" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B2" s="63" t="s">
         <v>31</v>
       </c>
       <c r="C2" s="64"/>
       <c r="F2" s="71"/>
     </row>
-    <row r="3" spans="2:6" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:6" s="70" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B3" s="95" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="96"/>
       <c r="F3" s="71"/>
     </row>
-    <row r="4" spans="2:6" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:6" s="70" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B4" s="97"/>
       <c r="C4" s="98"/>
       <c r="F4" s="71"/>
     </row>
-    <row r="5" spans="2:6" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:6" s="70" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B5" s="97"/>
       <c r="C5" s="98"/>
       <c r="F5" s="71"/>
     </row>
-    <row r="6" spans="2:6" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:6" s="70" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B6" s="97"/>
       <c r="C6" s="98"/>
       <c r="F6" s="71"/>
     </row>
-    <row r="7" spans="2:6" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:6" s="70" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B7" s="97"/>
       <c r="C7" s="98"/>
       <c r="F7" s="71"/>
     </row>
-    <row r="8" spans="2:6" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:6" s="70" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B8" s="99"/>
       <c r="C8" s="100"/>
       <c r="F8" s="71"/>
     </row>
-    <row r="10" spans="2:6" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B10" s="63" t="s">
         <v>33</v>
       </c>
       <c r="C10" s="64"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="67">
         <v>1</v>
       </c>
       <c r="C11" s="68"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="67">
         <v>2</v>
       </c>
       <c r="C12" s="68"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="67">
         <v>3</v>
       </c>
       <c r="C13" s="68"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="67">
         <v>4</v>
       </c>
       <c r="C14" s="68"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="67">
         <v>5</v>
       </c>
       <c r="C15" s="68"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="67">
         <v>6</v>
       </c>
@@ -3249,22 +3273,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="55"/>
-    <col min="2" max="2" width="12.125" style="55" customWidth="1"/>
-    <col min="3" max="3" width="21.375" style="55" customWidth="1"/>
-    <col min="4" max="4" width="46.125" style="55" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="55" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" style="55" customWidth="1"/>
+    <col min="4" max="4" width="46.109375" style="55" customWidth="1"/>
     <col min="5" max="16384" width="9" style="55"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:4" ht="31.2" x14ac:dyDescent="0.25">
       <c r="B2" s="63" t="s">
         <v>34</v>
       </c>
       <c r="C2" s="64"/>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="65" t="s">
         <v>20</v>
       </c>
@@ -3275,35 +3299,35 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="67">
         <v>1</v>
       </c>
       <c r="C4" s="68"/>
       <c r="D4" s="69"/>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="67">
         <v>2</v>
       </c>
       <c r="C5" s="68"/>
       <c r="D5" s="69"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="67">
         <v>3</v>
       </c>
       <c r="C6" s="68"/>
       <c r="D6" s="69"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="67">
         <v>4</v>
       </c>
       <c r="C7" s="68"/>
       <c r="D7" s="69"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="67">
         <v>5</v>
       </c>
@@ -3326,16 +3350,16 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.25" style="55" customWidth="1"/>
-    <col min="2" max="2" width="52.875" style="55" customWidth="1"/>
-    <col min="3" max="3" width="13.75" style="55" customWidth="1"/>
+    <col min="1" max="1" width="12.21875" style="55" customWidth="1"/>
+    <col min="2" max="2" width="52.88671875" style="55" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" style="55" customWidth="1"/>
     <col min="4" max="4" width="17" style="55" customWidth="1"/>
     <col min="5" max="16384" width="9" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
         <v>37</v>
       </c>
@@ -3343,7 +3367,7 @@
       <c r="C1" s="57"/>
       <c r="D1" s="57"/>
     </row>
-    <row r="2" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="58" t="s">
         <v>38</v>
       </c>
@@ -3357,7 +3381,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="60" t="s">
         <v>42</v>
       </c>
@@ -3371,7 +3395,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="60" t="s">
         <v>46</v>
       </c>
@@ -3383,7 +3407,7 @@
       </c>
       <c r="D4" s="62"/>
     </row>
-    <row r="5" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="60" t="s">
         <v>49</v>
       </c>
@@ -3397,7 +3421,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="60" t="s">
         <v>51</v>
       </c>
@@ -3411,7 +3435,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="60" t="s">
         <v>221</v>
       </c>
@@ -3423,7 +3447,7 @@
       </c>
       <c r="D7" s="61"/>
     </row>
-    <row r="8" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="60" t="s">
         <v>222</v>
       </c>
@@ -3435,7 +3459,7 @@
       </c>
       <c r="D8" s="61"/>
     </row>
-    <row r="9" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="60" t="s">
         <v>53</v>
       </c>
@@ -3447,7 +3471,7 @@
       </c>
       <c r="D9" s="61"/>
     </row>
-    <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" s="63" t="s">
         <v>55</v>
       </c>
@@ -3474,9 +3498,9 @@
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>3752850</xdr:colOff>
+                <xdr:colOff>3756660</xdr:colOff>
                 <xdr:row>42</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
+                <xdr:rowOff>137160</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -3492,23 +3516,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:F134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="42" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="42" customWidth="1"/>
-    <col min="3" max="3" width="16.625" style="42" customWidth="1"/>
-    <col min="4" max="4" width="23.125" style="42" customWidth="1"/>
-    <col min="5" max="5" width="17.125" style="43" customWidth="1"/>
-    <col min="6" max="6" width="28.375" style="42" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" style="42" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="42" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" style="42" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" style="43" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" style="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="84" t="s">
         <v>56</v>
       </c>
@@ -3516,7 +3540,7 @@
       <c r="E1" s="42"/>
       <c r="F1" s="44"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
         <v>229</v>
       </c>
@@ -3528,7 +3552,7 @@
       </c>
       <c r="F2" s="45"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
         <v>239</v>
       </c>
@@ -3538,7 +3562,7 @@
       <c r="E3" s="47"/>
       <c r="F3" s="45"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="42" t="s">
         <v>58</v>
       </c>
@@ -3553,7 +3577,7 @@
       </c>
       <c r="F4" s="48"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="42" t="s">
         <v>62</v>
       </c>
@@ -3568,7 +3592,7 @@
       </c>
       <c r="F5" s="48"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="42" t="s">
         <v>64</v>
       </c>
@@ -3583,7 +3607,7 @@
       </c>
       <c r="F6" s="48"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="42" t="s">
         <v>66</v>
       </c>
@@ -3598,7 +3622,7 @@
       </c>
       <c r="F7" s="48"/>
     </row>
-    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B8" s="42" t="s">
         <v>69</v>
       </c>
@@ -3611,7 +3635,7 @@
       <c r="E8" s="44"/>
       <c r="F8" s="48"/>
     </row>
-    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B9" s="42" t="s">
         <v>72</v>
       </c>
@@ -3624,7 +3648,7 @@
       <c r="E9" s="44"/>
       <c r="F9" s="48"/>
     </row>
-    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B10" s="84" t="s">
         <v>73</v>
       </c>
@@ -3632,7 +3656,7 @@
       <c r="E10" s="44"/>
       <c r="F10" s="48"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="42" t="s">
         <v>74</v>
       </c>
@@ -3647,7 +3671,7 @@
       </c>
       <c r="F11" s="49"/>
     </row>
-    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B12" s="84" t="s">
         <v>73</v>
       </c>
@@ -3655,7 +3679,7 @@
       <c r="E12" s="42"/>
       <c r="F12" s="44"/>
     </row>
-    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B13" s="42" t="s">
         <v>76</v>
       </c>
@@ -3670,7 +3694,7 @@
       </c>
       <c r="F13" s="44"/>
     </row>
-    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B14" s="42" t="s">
         <v>78</v>
       </c>
@@ -3683,7 +3707,7 @@
       <c r="E14" s="42"/>
       <c r="F14" s="44"/>
     </row>
-    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B15" s="42" t="s">
         <v>80</v>
       </c>
@@ -3696,7 +3720,7 @@
       <c r="E15" s="42"/>
       <c r="F15" s="44"/>
     </row>
-    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B16" s="42" t="s">
         <v>81</v>
       </c>
@@ -3711,7 +3735,7 @@
       </c>
       <c r="F16" s="44"/>
     </row>
-    <row r="17" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B17" s="42" t="s">
         <v>83</v>
       </c>
@@ -3724,7 +3748,7 @@
       <c r="E17" s="42"/>
       <c r="F17" s="44"/>
     </row>
-    <row r="18" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B18" s="42" t="s">
         <v>84</v>
       </c>
@@ -3737,7 +3761,7 @@
       <c r="E18" s="48"/>
       <c r="F18" s="44"/>
     </row>
-    <row r="19" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B19" s="84" t="s">
         <v>73</v>
       </c>
@@ -3745,7 +3769,7 @@
       <c r="E19" s="42"/>
       <c r="F19" s="44"/>
     </row>
-    <row r="20" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B20" s="42" t="s">
         <v>85</v>
       </c>
@@ -3760,7 +3784,7 @@
       </c>
       <c r="F20" s="44"/>
     </row>
-    <row r="21" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B21" s="42" t="s">
         <v>307</v>
       </c>
@@ -3775,7 +3799,7 @@
       </c>
       <c r="F21" s="44"/>
     </row>
-    <row r="22" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B22" s="42" t="s">
         <v>267</v>
       </c>
@@ -3790,7 +3814,7 @@
       </c>
       <c r="F22" s="44"/>
     </row>
-    <row r="23" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B23" s="42" t="s">
         <v>265</v>
       </c>
@@ -3802,7 +3826,7 @@
       </c>
       <c r="F23" s="44"/>
     </row>
-    <row r="24" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B24" s="42" t="s">
         <v>266</v>
       </c>
@@ -3815,7 +3839,7 @@
       <c r="E24" s="42"/>
       <c r="F24" s="44"/>
     </row>
-    <row r="25" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B25" s="84" t="s">
         <v>73</v>
       </c>
@@ -3824,7 +3848,7 @@
       <c r="E25" s="42"/>
       <c r="F25" s="44"/>
     </row>
-    <row r="26" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B26" s="42" t="s">
         <v>269</v>
       </c>
@@ -3839,7 +3863,7 @@
       </c>
       <c r="F26" s="44"/>
     </row>
-    <row r="27" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B27" s="42" t="s">
         <v>310</v>
       </c>
@@ -3854,7 +3878,7 @@
       </c>
       <c r="F27" s="44"/>
     </row>
-    <row r="28" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B28" s="42" t="s">
         <v>273</v>
       </c>
@@ -3869,7 +3893,7 @@
       </c>
       <c r="F28" s="44"/>
     </row>
-    <row r="29" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B29" s="42" t="s">
         <v>274</v>
       </c>
@@ -3882,7 +3906,7 @@
       <c r="E29" s="48"/>
       <c r="F29" s="44"/>
     </row>
-    <row r="30" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B30" s="84" t="s">
         <v>276</v>
       </c>
@@ -3891,7 +3915,7 @@
       <c r="E30" s="42"/>
       <c r="F30" s="44"/>
     </row>
-    <row r="31" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B31" s="42" t="s">
         <v>277</v>
       </c>
@@ -3906,7 +3930,7 @@
       </c>
       <c r="F31" s="44"/>
     </row>
-    <row r="32" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B32" s="42" t="s">
         <v>278</v>
       </c>
@@ -3921,7 +3945,7 @@
       </c>
       <c r="F32" s="44"/>
     </row>
-    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B33" s="42" t="s">
         <v>279</v>
       </c>
@@ -3936,7 +3960,7 @@
       </c>
       <c r="F33" s="44"/>
     </row>
-    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B34" s="42" t="s">
         <v>280</v>
       </c>
@@ -3951,7 +3975,7 @@
       </c>
       <c r="F34" s="44"/>
     </row>
-    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B35" s="42" t="s">
         <v>281</v>
       </c>
@@ -3966,7 +3990,7 @@
       </c>
       <c r="F35" s="44"/>
     </row>
-    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B36" s="84" t="s">
         <v>282</v>
       </c>
@@ -3975,7 +3999,7 @@
       <c r="E36" s="42"/>
       <c r="F36" s="44"/>
     </row>
-    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B37" s="42" t="s">
         <v>283</v>
       </c>
@@ -3990,7 +4014,7 @@
       </c>
       <c r="F37" s="44"/>
     </row>
-    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B38" s="42" t="s">
         <v>284</v>
       </c>
@@ -4005,7 +4029,7 @@
       </c>
       <c r="F38" s="44"/>
     </row>
-    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B39" s="42" t="s">
         <v>285</v>
       </c>
@@ -4020,7 +4044,7 @@
       </c>
       <c r="F39" s="44"/>
     </row>
-    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B40" s="42" t="s">
         <v>286</v>
       </c>
@@ -4035,7 +4059,7 @@
       </c>
       <c r="F40" s="44"/>
     </row>
-    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B41" s="42" t="s">
         <v>287</v>
       </c>
@@ -4050,7 +4074,7 @@
       </c>
       <c r="F41" s="44"/>
     </row>
-    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B42" s="42" t="s">
         <v>288</v>
       </c>
@@ -4063,7 +4087,7 @@
       <c r="E42" s="48"/>
       <c r="F42" s="44"/>
     </row>
-    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B43" s="42" t="s">
         <v>289</v>
       </c>
@@ -4078,7 +4102,7 @@
       </c>
       <c r="F43" s="44"/>
     </row>
-    <row r="44" spans="1:6" s="41" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A44" s="42"/>
       <c r="B44" s="42" t="s">
         <v>89</v>
@@ -4094,7 +4118,7 @@
       </c>
       <c r="F44" s="44"/>
     </row>
-    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B45" s="42" t="s">
         <v>230</v>
       </c>
@@ -4102,7 +4126,7 @@
       <c r="E45" s="42"/>
       <c r="F45" s="44"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="50"/>
       <c r="B46" s="51" t="s">
         <v>231</v>
@@ -4112,7 +4136,7 @@
       <c r="E46" s="53"/>
       <c r="F46" s="50"/>
     </row>
-    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B47" s="42" t="s">
         <v>93</v>
       </c>
@@ -4120,7 +4144,7 @@
       <c r="E47" s="42"/>
       <c r="F47" s="44"/>
     </row>
-    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A48" s="42" t="s">
         <v>232</v>
       </c>
@@ -4128,7 +4152,7 @@
       <c r="E48" s="42"/>
       <c r="F48" s="44"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="45" t="s">
         <v>233</v>
       </c>
@@ -4140,7 +4164,7 @@
       </c>
       <c r="F50" s="45"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="45" t="s">
         <v>234</v>
       </c>
@@ -4150,7 +4174,7 @@
       <c r="E51" s="47"/>
       <c r="F51" s="45"/>
     </row>
-    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B52" s="42" t="s">
         <v>58</v>
       </c>
@@ -4165,7 +4189,7 @@
       </c>
       <c r="F52" s="44"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B53" s="42" t="s">
         <v>62</v>
       </c>
@@ -4178,7 +4202,7 @@
       <c r="E53" s="48"/>
       <c r="F53" s="48"/>
     </row>
-    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B54" s="42" t="s">
         <v>64</v>
       </c>
@@ -4193,7 +4217,7 @@
       </c>
       <c r="F54" s="44"/>
     </row>
-    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B55" s="42" t="s">
         <v>95</v>
       </c>
@@ -4206,7 +4230,7 @@
       <c r="E55" s="48"/>
       <c r="F55" s="44"/>
     </row>
-    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B56" s="84" t="s">
         <v>73</v>
       </c>
@@ -4214,7 +4238,7 @@
       <c r="E56" s="42"/>
       <c r="F56" s="44"/>
     </row>
-    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B57" s="42" t="s">
         <v>99</v>
       </c>
@@ -4229,7 +4253,7 @@
       </c>
       <c r="F57" s="44"/>
     </row>
-    <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B58" s="42" t="s">
         <v>101</v>
       </c>
@@ -4242,7 +4266,7 @@
       <c r="E58" s="42"/>
       <c r="F58" s="44"/>
     </row>
-    <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B59" s="42" t="s">
         <v>102</v>
       </c>
@@ -4255,7 +4279,7 @@
       <c r="E59" s="42"/>
       <c r="F59" s="44"/>
     </row>
-    <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B60" s="42" t="s">
         <v>103</v>
       </c>
@@ -4268,7 +4292,7 @@
       <c r="E60" s="42"/>
       <c r="F60" s="44"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B61" s="42" t="s">
         <v>258</v>
       </c>
@@ -4283,7 +4307,7 @@
       </c>
       <c r="F61" s="54"/>
     </row>
-    <row r="62" spans="1:6" ht="36" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:6" ht="36" x14ac:dyDescent="0.25">
       <c r="B62" s="42" t="s">
         <v>104</v>
       </c>
@@ -4300,7 +4324,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B63" s="84" t="s">
         <v>73</v>
       </c>
@@ -4308,7 +4332,7 @@
       <c r="E63" s="42"/>
       <c r="F63" s="44"/>
     </row>
-    <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B64" s="42" t="s">
         <v>107</v>
       </c>
@@ -4323,7 +4347,7 @@
       </c>
       <c r="F64" s="44"/>
     </row>
-    <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B65" s="42" t="s">
         <v>109</v>
       </c>
@@ -4338,7 +4362,7 @@
       </c>
       <c r="F65" s="44"/>
     </row>
-    <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B66" s="42" t="s">
         <v>112</v>
       </c>
@@ -4353,7 +4377,7 @@
       </c>
       <c r="F66" s="44"/>
     </row>
-    <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B67" s="42" t="s">
         <v>235</v>
       </c>
@@ -4361,7 +4385,7 @@
       <c r="E67" s="42"/>
       <c r="F67" s="44"/>
     </row>
-    <row r="68" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B68" s="42" t="s">
         <v>93</v>
       </c>
@@ -4369,7 +4393,7 @@
       <c r="E68" s="42"/>
       <c r="F68" s="44"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="45" t="s">
         <v>236</v>
       </c>
@@ -4381,7 +4405,7 @@
       </c>
       <c r="F71" s="45"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="45" t="s">
         <v>237</v>
       </c>
@@ -4391,7 +4415,7 @@
       <c r="E72" s="47"/>
       <c r="F72" s="45"/>
     </row>
-    <row r="73" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B73" s="42" t="s">
         <v>58</v>
       </c>
@@ -4406,7 +4430,7 @@
       </c>
       <c r="F73" s="44"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B74" s="42" t="s">
         <v>62</v>
       </c>
@@ -4419,7 +4443,7 @@
       <c r="E74" s="48"/>
       <c r="F74" s="48"/>
     </row>
-    <row r="75" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B75" s="42" t="s">
         <v>64</v>
       </c>
@@ -4434,7 +4458,7 @@
       </c>
       <c r="F75" s="44"/>
     </row>
-    <row r="76" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B76" s="42" t="s">
         <v>217</v>
       </c>
@@ -4449,7 +4473,7 @@
       </c>
       <c r="F76" s="44"/>
     </row>
-    <row r="77" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B77" s="42" t="s">
         <v>73</v>
       </c>
@@ -4457,7 +4481,7 @@
       <c r="E77" s="42"/>
       <c r="F77" s="44"/>
     </row>
-    <row r="78" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B78" s="42" t="s">
         <v>218</v>
       </c>
@@ -4472,7 +4496,7 @@
       </c>
       <c r="F78" s="44"/>
     </row>
-    <row r="79" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B79" s="42" t="s">
         <v>219</v>
       </c>
@@ -4487,7 +4511,7 @@
       </c>
       <c r="F79" s="44"/>
     </row>
-    <row r="80" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B80" s="42" t="s">
         <v>220</v>
       </c>
@@ -4502,7 +4526,7 @@
       </c>
       <c r="F80" s="44"/>
     </row>
-    <row r="81" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B81" s="42" t="s">
         <v>238</v>
       </c>
@@ -4510,7 +4534,7 @@
       <c r="E81" s="42"/>
       <c r="F81" s="44"/>
     </row>
-    <row r="82" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B82" s="42" t="s">
         <v>93</v>
       </c>
@@ -4518,231 +4542,599 @@
       <c r="E82" s="42"/>
       <c r="F82" s="44"/>
     </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="45" t="s">
+        <v>315</v>
+      </c>
+      <c r="B84" s="45"/>
+      <c r="C84" s="45"/>
+      <c r="D84" s="45"/>
+      <c r="E84" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="F84" s="45"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="45" t="s">
+        <v>316</v>
+      </c>
+      <c r="B85" s="45"/>
+      <c r="C85" s="45"/>
+      <c r="D85" s="45"/>
+      <c r="E85" s="47"/>
+      <c r="F85" s="45"/>
+    </row>
+    <row r="86" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B86" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C86" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="D86" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="E86" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="F86" s="44"/>
+    </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="85" t="s">
-        <v>240</v>
-      </c>
-      <c r="B87" s="86"/>
-      <c r="C87" s="86"/>
-      <c r="D87" s="86"/>
-      <c r="E87" s="87"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="85" t="s">
-        <v>311</v>
-      </c>
-      <c r="B88" s="86"/>
-      <c r="C88" s="86"/>
-      <c r="D88" s="86"/>
-      <c r="E88" s="88" t="s">
+      <c r="B87" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="C87" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="D87" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="E87" s="48"/>
+      <c r="F87" s="48"/>
+    </row>
+    <row r="88" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B88" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="C88" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="D88" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="E88" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="F88" s="44"/>
+    </row>
+    <row r="89" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B89" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="C89" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="D89" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="E89" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="F89" s="44"/>
+    </row>
+    <row r="90" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B90" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="D90" s="43"/>
+      <c r="E90" s="42"/>
+      <c r="F90" s="44"/>
+    </row>
+    <row r="91" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B91" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="C91" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="D91" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="E91" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="F91" s="44"/>
+    </row>
+    <row r="92" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B92" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="C92" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="D92" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="E92" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="F92" s="44"/>
+    </row>
+    <row r="93" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B93" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="C93" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="D93" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="E93" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="F93" s="44"/>
+    </row>
+    <row r="94" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B94" s="42" t="s">
+        <v>317</v>
+      </c>
+      <c r="D94" s="43"/>
+      <c r="E94" s="42"/>
+      <c r="F94" s="44"/>
+    </row>
+    <row r="95" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B95" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="D95" s="43"/>
+      <c r="E95" s="42"/>
+      <c r="F95" s="44"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="85" t="s">
+        <v>312</v>
+      </c>
+      <c r="B100" s="86"/>
+      <c r="C100" s="86"/>
+      <c r="D100" s="86"/>
+      <c r="E100" s="87"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="85" t="s">
+        <v>313</v>
+      </c>
+      <c r="B101" s="86"/>
+      <c r="C101" s="86"/>
+      <c r="D101" s="86"/>
+      <c r="E101" s="88" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="86"/>
-      <c r="B89" s="86" t="s">
-        <v>242</v>
-      </c>
-      <c r="C89" s="86" t="s">
-        <v>59</v>
-      </c>
-      <c r="D89" s="86" t="s">
-        <v>60</v>
-      </c>
-      <c r="E89" s="89" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="86"/>
-      <c r="B90" s="86" t="s">
-        <v>95</v>
-      </c>
-      <c r="C90" s="86" t="s">
-        <v>59</v>
-      </c>
-      <c r="D90" s="86" t="s">
-        <v>60</v>
-      </c>
-      <c r="E90" s="89" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="86"/>
-      <c r="B91" s="86" t="s">
-        <v>69</v>
-      </c>
-      <c r="C91" s="86" t="s">
-        <v>70</v>
-      </c>
-      <c r="D91" s="86" t="s">
-        <v>71</v>
-      </c>
-      <c r="E91" s="89" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="86"/>
-      <c r="B92" s="86" t="s">
-        <v>72</v>
-      </c>
-      <c r="C92" s="86" t="s">
-        <v>70</v>
-      </c>
-      <c r="D92" s="86" t="s">
-        <v>71</v>
-      </c>
-      <c r="E92" s="89" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="86"/>
-      <c r="B93" s="90" t="s">
-        <v>73</v>
-      </c>
-      <c r="C93" s="86"/>
-      <c r="D93" s="86"/>
-      <c r="E93" s="91"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="86"/>
-      <c r="B94" s="92" t="s">
-        <v>255</v>
-      </c>
-      <c r="C94" s="92" t="s">
-        <v>256</v>
-      </c>
-      <c r="D94" s="92" t="s">
-        <v>67</v>
-      </c>
-      <c r="E94" s="93" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="86"/>
-      <c r="B95" s="92" t="s">
-        <v>260</v>
-      </c>
-      <c r="C95" s="92" t="s">
-        <v>59</v>
-      </c>
-      <c r="D95" s="92" t="s">
-        <v>67</v>
-      </c>
-      <c r="E95" s="93" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="86"/>
-      <c r="B96" s="92" t="s">
-        <v>262</v>
-      </c>
-      <c r="C96" s="92" t="s">
-        <v>59</v>
-      </c>
-      <c r="D96" s="92" t="s">
-        <v>67</v>
-      </c>
-      <c r="E96" s="93" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" s="86"/>
-      <c r="B97" s="92" t="s">
-        <v>263</v>
-      </c>
-      <c r="C97" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="D97" s="92" t="s">
-        <v>67</v>
-      </c>
-      <c r="E97" s="92"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" s="86"/>
-      <c r="B98" s="92" t="s">
-        <v>264</v>
-      </c>
-      <c r="C98" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="D98" s="92" t="s">
-        <v>67</v>
-      </c>
-      <c r="E98" s="93"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99" s="86"/>
-      <c r="B99" s="86" t="s">
-        <v>248</v>
-      </c>
-      <c r="C99" s="86" t="s">
-        <v>249</v>
-      </c>
-      <c r="D99" s="86" t="s">
-        <v>67</v>
-      </c>
-      <c r="E99" s="89" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A100" s="86"/>
-      <c r="B100" s="86" t="s">
-        <v>250</v>
-      </c>
-      <c r="C100" s="86" t="s">
-        <v>251</v>
-      </c>
-      <c r="D100" s="86" t="s">
-        <v>67</v>
-      </c>
-      <c r="E100" s="89"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101" s="86"/>
-      <c r="B101" s="86" t="s">
-        <v>252</v>
-      </c>
-      <c r="C101" s="86" t="s">
-        <v>251</v>
-      </c>
-      <c r="D101" s="86" t="s">
-        <v>67</v>
-      </c>
-      <c r="E101" s="89"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="86"/>
       <c r="B102" s="86" t="s">
-        <v>253</v>
-      </c>
-      <c r="C102" s="86"/>
-      <c r="D102" s="86"/>
-      <c r="E102" s="91"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+      <c r="C102" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="D102" s="86" t="s">
+        <v>60</v>
+      </c>
+      <c r="E102" s="89" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="86"/>
       <c r="B103" s="86" t="s">
+        <v>95</v>
+      </c>
+      <c r="C103" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="D103" s="86" t="s">
+        <v>60</v>
+      </c>
+      <c r="E103" s="89" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="86"/>
+      <c r="B104" s="86" t="s">
+        <v>69</v>
+      </c>
+      <c r="C104" s="86" t="s">
+        <v>70</v>
+      </c>
+      <c r="D104" s="86" t="s">
+        <v>71</v>
+      </c>
+      <c r="E104" s="89" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="86"/>
+      <c r="B105" s="86" t="s">
+        <v>72</v>
+      </c>
+      <c r="C105" s="86" t="s">
+        <v>70</v>
+      </c>
+      <c r="D105" s="86" t="s">
+        <v>71</v>
+      </c>
+      <c r="E105" s="89" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="86"/>
+      <c r="B106" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="C106" s="86"/>
+      <c r="D106" s="86"/>
+      <c r="E106" s="91"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="86"/>
+      <c r="B107" s="92" t="s">
+        <v>255</v>
+      </c>
+      <c r="C107" s="92" t="s">
+        <v>256</v>
+      </c>
+      <c r="D107" s="92" t="s">
+        <v>67</v>
+      </c>
+      <c r="E107" s="93" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="86"/>
+      <c r="B108" s="92" t="s">
+        <v>260</v>
+      </c>
+      <c r="C108" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="D108" s="92" t="s">
+        <v>67</v>
+      </c>
+      <c r="E108" s="93" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="86"/>
+      <c r="B109" s="92" t="s">
+        <v>262</v>
+      </c>
+      <c r="C109" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="D109" s="92" t="s">
+        <v>67</v>
+      </c>
+      <c r="E109" s="93" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="86"/>
+      <c r="B110" s="92" t="s">
+        <v>263</v>
+      </c>
+      <c r="C110" s="92" t="s">
+        <v>79</v>
+      </c>
+      <c r="D110" s="92" t="s">
+        <v>67</v>
+      </c>
+      <c r="E110" s="92"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="86"/>
+      <c r="B111" s="92" t="s">
+        <v>264</v>
+      </c>
+      <c r="C111" s="92" t="s">
+        <v>79</v>
+      </c>
+      <c r="D111" s="92" t="s">
+        <v>67</v>
+      </c>
+      <c r="E111" s="93"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="86"/>
+      <c r="B112" s="86" t="s">
+        <v>248</v>
+      </c>
+      <c r="C112" s="86" t="s">
+        <v>249</v>
+      </c>
+      <c r="D112" s="86" t="s">
+        <v>67</v>
+      </c>
+      <c r="E112" s="89" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="86"/>
+      <c r="B113" s="86" t="s">
+        <v>250</v>
+      </c>
+      <c r="C113" s="86" t="s">
+        <v>251</v>
+      </c>
+      <c r="D113" s="86" t="s">
+        <v>67</v>
+      </c>
+      <c r="E113" s="89"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="86"/>
+      <c r="B114" s="86" t="s">
+        <v>252</v>
+      </c>
+      <c r="C114" s="86" t="s">
+        <v>251</v>
+      </c>
+      <c r="D114" s="86" t="s">
+        <v>67</v>
+      </c>
+      <c r="E114" s="89"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="86"/>
+      <c r="B115" s="86" t="s">
+        <v>314</v>
+      </c>
+      <c r="C115" s="86"/>
+      <c r="D115" s="86"/>
+      <c r="E115" s="91"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="86"/>
+      <c r="B116" s="86" t="s">
         <v>93</v>
       </c>
-      <c r="C103" s="86"/>
-      <c r="D103" s="86"/>
-      <c r="E103" s="91"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A104" s="94"/>
-      <c r="B104" s="94"/>
-      <c r="C104" s="94"/>
-      <c r="D104" s="94"/>
-      <c r="E104" s="94"/>
+      <c r="C116" s="86"/>
+      <c r="D116" s="86"/>
+      <c r="E116" s="91"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="94"/>
+      <c r="B117" s="94"/>
+      <c r="C117" s="94"/>
+      <c r="D117" s="94"/>
+      <c r="E117" s="94"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" s="85" t="s">
+        <v>240</v>
+      </c>
+      <c r="B118" s="86"/>
+      <c r="C118" s="86"/>
+      <c r="D118" s="86"/>
+      <c r="E118" s="87"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" s="85" t="s">
+        <v>311</v>
+      </c>
+      <c r="B119" s="86"/>
+      <c r="C119" s="86"/>
+      <c r="D119" s="86"/>
+      <c r="E119" s="88" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="86"/>
+      <c r="B120" s="86" t="s">
+        <v>242</v>
+      </c>
+      <c r="C120" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="D120" s="86" t="s">
+        <v>60</v>
+      </c>
+      <c r="E120" s="89" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="86"/>
+      <c r="B121" s="86" t="s">
+        <v>95</v>
+      </c>
+      <c r="C121" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="D121" s="86" t="s">
+        <v>60</v>
+      </c>
+      <c r="E121" s="89" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="86"/>
+      <c r="B122" s="86" t="s">
+        <v>69</v>
+      </c>
+      <c r="C122" s="86" t="s">
+        <v>70</v>
+      </c>
+      <c r="D122" s="86" t="s">
+        <v>71</v>
+      </c>
+      <c r="E122" s="89" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="86"/>
+      <c r="B123" s="86" t="s">
+        <v>72</v>
+      </c>
+      <c r="C123" s="86" t="s">
+        <v>70</v>
+      </c>
+      <c r="D123" s="86" t="s">
+        <v>71</v>
+      </c>
+      <c r="E123" s="89" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="86"/>
+      <c r="B124" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="C124" s="86"/>
+      <c r="D124" s="86"/>
+      <c r="E124" s="91"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="86"/>
+      <c r="B125" s="92" t="s">
+        <v>255</v>
+      </c>
+      <c r="C125" s="92" t="s">
+        <v>256</v>
+      </c>
+      <c r="D125" s="92" t="s">
+        <v>67</v>
+      </c>
+      <c r="E125" s="93" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="86"/>
+      <c r="B126" s="92" t="s">
+        <v>260</v>
+      </c>
+      <c r="C126" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="D126" s="92" t="s">
+        <v>67</v>
+      </c>
+      <c r="E126" s="93" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="86"/>
+      <c r="B127" s="92" t="s">
+        <v>262</v>
+      </c>
+      <c r="C127" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="D127" s="92" t="s">
+        <v>67</v>
+      </c>
+      <c r="E127" s="93" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="86"/>
+      <c r="B128" s="92" t="s">
+        <v>263</v>
+      </c>
+      <c r="C128" s="92" t="s">
+        <v>79</v>
+      </c>
+      <c r="D128" s="92" t="s">
+        <v>67</v>
+      </c>
+      <c r="E128" s="92"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="86"/>
+      <c r="B129" s="92" t="s">
+        <v>264</v>
+      </c>
+      <c r="C129" s="92" t="s">
+        <v>79</v>
+      </c>
+      <c r="D129" s="92" t="s">
+        <v>67</v>
+      </c>
+      <c r="E129" s="93"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="86"/>
+      <c r="B130" s="86" t="s">
+        <v>248</v>
+      </c>
+      <c r="C130" s="86" t="s">
+        <v>249</v>
+      </c>
+      <c r="D130" s="86" t="s">
+        <v>67</v>
+      </c>
+      <c r="E130" s="89" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="86"/>
+      <c r="B131" s="86" t="s">
+        <v>250</v>
+      </c>
+      <c r="C131" s="86" t="s">
+        <v>251</v>
+      </c>
+      <c r="D131" s="86" t="s">
+        <v>67</v>
+      </c>
+      <c r="E131" s="89"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="86"/>
+      <c r="B132" s="86" t="s">
+        <v>252</v>
+      </c>
+      <c r="C132" s="86" t="s">
+        <v>251</v>
+      </c>
+      <c r="D132" s="86" t="s">
+        <v>67</v>
+      </c>
+      <c r="E132" s="89"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="86"/>
+      <c r="B133" s="86" t="s">
+        <v>253</v>
+      </c>
+      <c r="C133" s="86"/>
+      <c r="D133" s="86"/>
+      <c r="E133" s="91"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="86"/>
+      <c r="B134" s="86" t="s">
+        <v>93</v>
+      </c>
+      <c r="C134" s="86"/>
+      <c r="D134" s="86"/>
+      <c r="E134" s="91"/>
     </row>
   </sheetData>
   <phoneticPr fontId="33" type="noConversion"/>
@@ -4760,28 +5152,28 @@
       <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="45.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="1.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="1.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="1.125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="5.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.125" style="14" customWidth="1"/>
-    <col min="9" max="9" width="9.75" style="14" customWidth="1"/>
-    <col min="10" max="10" width="10.375" style="14" customWidth="1"/>
-    <col min="11" max="11" width="9.25" style="14" customWidth="1"/>
-    <col min="12" max="12" width="10.75" style="14" customWidth="1"/>
-    <col min="13" max="13" width="9.5" style="14" customWidth="1"/>
-    <col min="14" max="14" width="10.875" style="14" customWidth="1"/>
-    <col min="15" max="15" width="10.625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="6.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="1.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="1.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="1.109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="5.21875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" style="14" customWidth="1"/>
+    <col min="9" max="9" width="9.77734375" style="14" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" style="14" customWidth="1"/>
+    <col min="11" max="11" width="9.21875" style="14" customWidth="1"/>
+    <col min="12" max="12" width="10.77734375" style="14" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" style="14" customWidth="1"/>
+    <col min="14" max="14" width="10.88671875" style="14" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" style="14" customWidth="1"/>
     <col min="16" max="17" width="7" style="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>120</v>
       </c>
@@ -4795,7 +5187,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>122</v>
       </c>
@@ -4822,7 +5214,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
         <v>128</v>
       </c>
@@ -4830,7 +5222,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B4" s="13" t="s">
         <v>123</v>
       </c>
@@ -4840,19 +5232,19 @@
       <c r="H4" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="I4" s="101" t="s">
+      <c r="I4" s="106" t="s">
         <v>132</v>
       </c>
-      <c r="J4" s="101"/>
-      <c r="K4" s="105" t="s">
+      <c r="J4" s="106"/>
+      <c r="K4" s="110" t="s">
         <v>57</v>
       </c>
-      <c r="L4" s="105"/>
-      <c r="M4" s="105"/>
-      <c r="N4" s="105"/>
-      <c r="O4" s="105"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="L4" s="110"/>
+      <c r="M4" s="110"/>
+      <c r="N4" s="110"/>
+      <c r="O4" s="110"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B5" s="13" t="s">
         <v>133</v>
       </c>
@@ -4862,17 +5254,17 @@
       <c r="H5" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="I5" s="101" t="s">
+      <c r="I5" s="106" t="s">
         <v>136</v>
       </c>
-      <c r="J5" s="101"/>
-      <c r="K5" s="105"/>
-      <c r="L5" s="105"/>
-      <c r="M5" s="105"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="105"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="J5" s="106"/>
+      <c r="K5" s="110"/>
+      <c r="L5" s="110"/>
+      <c r="M5" s="110"/>
+      <c r="N5" s="110"/>
+      <c r="O5" s="110"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" s="13"/>
       <c r="C6" s="13" t="s">
         <v>137</v>
@@ -4880,17 +5272,17 @@
       <c r="H6" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="I6" s="101" t="s">
+      <c r="I6" s="106" t="s">
         <v>139</v>
       </c>
-      <c r="J6" s="101"/>
-      <c r="K6" s="105"/>
-      <c r="L6" s="105"/>
-      <c r="M6" s="105"/>
-      <c r="N6" s="105"/>
-      <c r="O6" s="105"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="J6" s="106"/>
+      <c r="K6" s="110"/>
+      <c r="L6" s="110"/>
+      <c r="M6" s="110"/>
+      <c r="N6" s="110"/>
+      <c r="O6" s="110"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
         <v>140</v>
       </c>
@@ -4898,7 +5290,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
       <c r="C8" s="13" t="s">
         <v>137</v>
@@ -4909,7 +5301,7 @@
       <c r="N8"/>
       <c r="O8" s="33"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
         <v>142</v>
       </c>
@@ -4919,113 +5311,113 @@
       <c r="H9" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="102" t="s">
+      <c r="I9" s="107" t="s">
         <v>144</v>
       </c>
-      <c r="J9" s="103"/>
-      <c r="K9" s="103"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="108"/>
       <c r="L9" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="M9" s="104" t="s">
+      <c r="M9" s="109" t="s">
         <v>145</v>
       </c>
-      <c r="N9" s="104"/>
-      <c r="O9" s="104"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="N9" s="109"/>
+      <c r="O9" s="109"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" s="13" t="s">
         <v>146</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="H10" s="108" t="s">
+      <c r="H10" s="101" t="s">
         <v>90</v>
       </c>
-      <c r="I10" s="109" t="s">
+      <c r="I10" s="102" t="s">
         <v>148</v>
       </c>
-      <c r="J10" s="109"/>
-      <c r="K10" s="109"/>
-      <c r="L10" s="109"/>
-      <c r="M10" s="109"/>
-      <c r="N10" s="109"/>
-      <c r="O10" s="109"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="102"/>
+      <c r="N10" s="102"/>
+      <c r="O10" s="102"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11" s="13" t="s">
         <v>149</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="H11" s="108"/>
-      <c r="I11" s="109"/>
-      <c r="J11" s="109"/>
-      <c r="K11" s="109"/>
-      <c r="L11" s="109"/>
-      <c r="M11" s="109"/>
-      <c r="N11" s="109"/>
-      <c r="O11" s="109"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="H11" s="101"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="102"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="102"/>
+      <c r="M11" s="102"/>
+      <c r="N11" s="102"/>
+      <c r="O11" s="102"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
         <v>151</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="H12" s="108"/>
-      <c r="I12" s="109"/>
-      <c r="J12" s="109"/>
-      <c r="K12" s="109"/>
-      <c r="L12" s="109"/>
-      <c r="M12" s="109"/>
-      <c r="N12" s="109"/>
-      <c r="O12" s="109"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="H12" s="101"/>
+      <c r="I12" s="102"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="102"/>
+      <c r="L12" s="102"/>
+      <c r="M12" s="102"/>
+      <c r="N12" s="102"/>
+      <c r="O12" s="102"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="s">
         <v>153</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="H13" s="108" t="s">
+      <c r="H13" s="101" t="s">
         <v>114</v>
       </c>
-      <c r="I13" s="110"/>
-      <c r="J13" s="110"/>
-      <c r="K13" s="110"/>
-      <c r="L13" s="110"/>
-      <c r="M13" s="110"/>
-      <c r="N13" s="110"/>
-      <c r="O13" s="110"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="H14" s="108"/>
-      <c r="I14" s="110"/>
-      <c r="J14" s="110"/>
-      <c r="K14" s="110"/>
-      <c r="L14" s="110"/>
-      <c r="M14" s="110"/>
-      <c r="N14" s="110"/>
-      <c r="O14" s="110"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="H15" s="108"/>
-      <c r="I15" s="110"/>
-      <c r="J15" s="110"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="103"/>
+      <c r="L13" s="103"/>
+      <c r="M13" s="103"/>
+      <c r="N13" s="103"/>
+      <c r="O13" s="103"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H14" s="101"/>
+      <c r="I14" s="103"/>
+      <c r="J14" s="103"/>
+      <c r="K14" s="103"/>
+      <c r="L14" s="103"/>
+      <c r="M14" s="103"/>
+      <c r="N14" s="103"/>
+      <c r="O14" s="103"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H15" s="101"/>
+      <c r="I15" s="103"/>
+      <c r="J15" s="103"/>
       <c r="K15" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="L15" s="110"/>
-      <c r="M15" s="110"/>
-      <c r="N15" s="110"/>
-      <c r="O15" s="110"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="L15" s="103"/>
+      <c r="M15" s="103"/>
+      <c r="N15" s="103"/>
+      <c r="O15" s="103"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>156</v>
       </c>
@@ -5034,7 +5426,7 @@
       </c>
       <c r="C16" s="6"/>
     </row>
-    <row r="17" spans="1:22" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:22" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>122</v>
       </c>
@@ -5048,7 +5440,7 @@
       <c r="N17"/>
       <c r="O17" s="33"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
         <v>128</v>
       </c>
@@ -5080,7 +5472,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B19" s="13" t="s">
         <v>166</v>
       </c>
@@ -5112,7 +5504,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B20" s="12"/>
       <c r="C20" s="12" t="s">
         <v>171</v>
@@ -5142,7 +5534,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B21" s="12"/>
       <c r="C21" s="12" t="s">
         <v>173</v>
@@ -5172,13 +5564,13 @@
         <v>170</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B22" s="13"/>
       <c r="C22" s="13" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:22" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B23" s="13" t="s">
         <v>176</v>
       </c>
@@ -5191,7 +5583,7 @@
       <c r="N23"/>
       <c r="O23" s="33"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B24" s="13" t="s">
         <v>179</v>
       </c>
@@ -5208,14 +5600,14 @@
       <c r="K24" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="L24" s="106" t="s">
+      <c r="L24" s="104" t="s">
         <v>111</v>
       </c>
-      <c r="M24" s="107"/>
-      <c r="N24" s="107"/>
-      <c r="O24" s="107"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="M24" s="105"/>
+      <c r="N24" s="105"/>
+      <c r="O24" s="105"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B25" s="13" t="s">
         <v>182</v>
       </c>
@@ -5234,14 +5626,14 @@
       <c r="K25" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="L25" s="101" t="s">
+      <c r="L25" s="106" t="s">
         <v>169</v>
       </c>
-      <c r="M25" s="101"/>
-      <c r="N25" s="101"/>
-      <c r="O25" s="101"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="M25" s="106"/>
+      <c r="N25" s="106"/>
+      <c r="O25" s="106"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B26" s="13"/>
       <c r="C26" s="13" t="s">
         <v>185</v>
@@ -5258,14 +5650,14 @@
       <c r="K26" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="L26" s="101" t="s">
+      <c r="L26" s="106" t="s">
         <v>169</v>
       </c>
-      <c r="M26" s="101"/>
-      <c r="N26" s="101"/>
-      <c r="O26" s="101"/>
-    </row>
-    <row r="28" spans="1:22" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="M26" s="106"/>
+      <c r="N26" s="106"/>
+      <c r="O26" s="106"/>
+    </row>
+    <row r="28" spans="1:22" ht="14.4" x14ac:dyDescent="0.25">
       <c r="H28" s="20" t="s">
         <v>186</v>
       </c>
@@ -5276,7 +5668,7 @@
       <c r="U28"/>
       <c r="V28"/>
     </row>
-    <row r="29" spans="1:22" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:22" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>156</v>
       </c>
@@ -5287,25 +5679,25 @@
       <c r="H29" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="I29" s="102" t="s">
+      <c r="I29" s="107" t="s">
         <v>188</v>
       </c>
-      <c r="J29" s="103"/>
-      <c r="K29" s="103"/>
+      <c r="J29" s="108"/>
+      <c r="K29" s="108"/>
       <c r="L29" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="M29" s="102" t="s">
+      <c r="M29" s="107" t="s">
         <v>189</v>
       </c>
-      <c r="N29" s="103"/>
-      <c r="O29" s="103"/>
+      <c r="N29" s="108"/>
+      <c r="O29" s="108"/>
       <c r="S29"/>
       <c r="T29"/>
       <c r="U29"/>
       <c r="V29"/>
     </row>
-    <row r="30" spans="1:22" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:22" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>122</v>
       </c>
@@ -5336,7 +5728,7 @@
       <c r="U30"/>
       <c r="V30"/>
     </row>
-    <row r="31" spans="1:22" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:22" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B31" s="9" t="s">
         <v>128</v>
       </c>
@@ -5348,7 +5740,7 @@
       <c r="U31"/>
       <c r="V31"/>
     </row>
-    <row r="32" spans="1:22" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:22" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B32" s="11" t="s">
         <v>191</v>
       </c>
@@ -5361,181 +5753,181 @@
       <c r="U32"/>
       <c r="V32"/>
     </row>
-    <row r="33" spans="19:22" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="19:22" ht="14.4" x14ac:dyDescent="0.25">
       <c r="S33"/>
       <c r="T33"/>
       <c r="U33"/>
       <c r="V33"/>
     </row>
-    <row r="34" spans="19:22" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="19:22" ht="14.4" x14ac:dyDescent="0.25">
       <c r="S34"/>
       <c r="T34"/>
       <c r="U34"/>
       <c r="V34"/>
     </row>
-    <row r="35" spans="19:22" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="19:22" ht="14.4" x14ac:dyDescent="0.25">
       <c r="S35"/>
       <c r="T35"/>
       <c r="U35"/>
       <c r="V35"/>
     </row>
-    <row r="36" spans="19:22" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="19:22" ht="14.4" x14ac:dyDescent="0.25">
       <c r="S36"/>
       <c r="T36"/>
       <c r="U36"/>
       <c r="V36"/>
     </row>
-    <row r="37" spans="19:22" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="19:22" ht="14.4" x14ac:dyDescent="0.25">
       <c r="S37"/>
       <c r="T37"/>
       <c r="U37"/>
       <c r="V37"/>
     </row>
-    <row r="38" spans="19:22" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="19:22" ht="14.4" x14ac:dyDescent="0.25">
       <c r="S38"/>
       <c r="T38"/>
       <c r="U38"/>
       <c r="V38"/>
     </row>
-    <row r="39" spans="19:22" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="19:22" ht="14.4" x14ac:dyDescent="0.25">
       <c r="S39"/>
       <c r="T39"/>
       <c r="U39"/>
       <c r="V39"/>
     </row>
-    <row r="40" spans="19:22" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="19:22" ht="14.4" x14ac:dyDescent="0.25">
       <c r="S40"/>
       <c r="T40"/>
       <c r="U40"/>
       <c r="V40"/>
     </row>
-    <row r="41" spans="19:22" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="19:22" ht="14.4" x14ac:dyDescent="0.25">
       <c r="S41"/>
       <c r="T41"/>
       <c r="U41"/>
       <c r="V41"/>
     </row>
-    <row r="42" spans="19:22" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="19:22" ht="14.4" x14ac:dyDescent="0.25">
       <c r="S42"/>
       <c r="T42"/>
       <c r="U42"/>
       <c r="V42"/>
     </row>
-    <row r="43" spans="19:22" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="19:22" ht="14.4" x14ac:dyDescent="0.25">
       <c r="S43"/>
       <c r="T43"/>
       <c r="U43"/>
       <c r="V43"/>
     </row>
-    <row r="44" spans="19:22" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="19:22" ht="14.4" x14ac:dyDescent="0.25">
       <c r="S44"/>
       <c r="T44"/>
       <c r="U44"/>
       <c r="V44"/>
     </row>
-    <row r="45" spans="19:22" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="19:22" ht="14.4" x14ac:dyDescent="0.25">
       <c r="S45"/>
       <c r="T45"/>
       <c r="U45"/>
       <c r="V45"/>
     </row>
-    <row r="46" spans="19:22" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="19:22" ht="14.4" x14ac:dyDescent="0.25">
       <c r="S46"/>
       <c r="T46"/>
       <c r="U46"/>
       <c r="V46"/>
     </row>
-    <row r="47" spans="19:22" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="19:22" ht="14.4" x14ac:dyDescent="0.25">
       <c r="S47"/>
       <c r="T47"/>
       <c r="U47"/>
       <c r="V47"/>
     </row>
-    <row r="48" spans="19:22" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="19:22" ht="14.4" x14ac:dyDescent="0.25">
       <c r="S48"/>
       <c r="T48"/>
       <c r="U48"/>
       <c r="V48"/>
     </row>
-    <row r="49" spans="19:22" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="19:22" ht="14.4" x14ac:dyDescent="0.25">
       <c r="S49"/>
       <c r="T49"/>
       <c r="U49"/>
       <c r="V49"/>
     </row>
-    <row r="50" spans="19:22" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="19:22" ht="14.4" x14ac:dyDescent="0.25">
       <c r="S50"/>
       <c r="T50"/>
       <c r="U50"/>
       <c r="V50"/>
     </row>
-    <row r="51" spans="19:22" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="19:22" ht="14.4" x14ac:dyDescent="0.25">
       <c r="S51"/>
       <c r="T51"/>
       <c r="U51"/>
       <c r="V51"/>
     </row>
-    <row r="52" spans="19:22" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="19:22" ht="14.4" x14ac:dyDescent="0.25">
       <c r="S52"/>
       <c r="T52"/>
       <c r="U52"/>
       <c r="V52"/>
     </row>
-    <row r="53" spans="19:22" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="19:22" ht="14.4" x14ac:dyDescent="0.25">
       <c r="S53"/>
       <c r="T53"/>
       <c r="U53"/>
       <c r="V53"/>
     </row>
-    <row r="54" spans="19:22" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="19:22" ht="14.4" x14ac:dyDescent="0.25">
       <c r="S54"/>
       <c r="T54"/>
       <c r="U54"/>
       <c r="V54"/>
     </row>
-    <row r="55" spans="19:22" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="19:22" ht="14.4" x14ac:dyDescent="0.25">
       <c r="S55"/>
       <c r="T55"/>
       <c r="U55"/>
       <c r="V55"/>
     </row>
-    <row r="56" spans="19:22" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="19:22" ht="14.4" x14ac:dyDescent="0.25">
       <c r="S56"/>
       <c r="T56"/>
       <c r="U56"/>
       <c r="V56"/>
     </row>
-    <row r="57" spans="19:22" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="19:22" ht="14.4" x14ac:dyDescent="0.25">
       <c r="S57"/>
       <c r="T57"/>
       <c r="U57"/>
       <c r="V57"/>
     </row>
-    <row r="58" spans="19:22" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="19:22" ht="14.4" x14ac:dyDescent="0.25">
       <c r="S58"/>
       <c r="T58"/>
       <c r="U58"/>
       <c r="V58"/>
     </row>
-    <row r="59" spans="19:22" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="19:22" ht="14.4" x14ac:dyDescent="0.25">
       <c r="S59"/>
       <c r="T59"/>
       <c r="U59"/>
       <c r="V59"/>
     </row>
-    <row r="60" spans="19:22" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="19:22" ht="14.4" x14ac:dyDescent="0.25">
       <c r="S60"/>
       <c r="T60"/>
       <c r="U60"/>
       <c r="V60"/>
     </row>
-    <row r="61" spans="19:22" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="19:22" ht="14.4" x14ac:dyDescent="0.25">
       <c r="S61"/>
       <c r="T61"/>
       <c r="U61"/>
       <c r="V61"/>
     </row>
-    <row r="62" spans="19:22" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="19:22" ht="14.4" x14ac:dyDescent="0.25">
       <c r="S62"/>
       <c r="T62"/>
       <c r="U62"/>
@@ -5543,23 +5935,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="K4:O6"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="L26:O26"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="M29:O29"/>
     <mergeCell ref="H10:H12"/>
     <mergeCell ref="H13:H15"/>
     <mergeCell ref="I10:O12"/>
     <mergeCell ref="I13:K14"/>
     <mergeCell ref="L13:O15"/>
     <mergeCell ref="I15:J15"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="L25:O25"/>
-    <mergeCell ref="L26:O26"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="K4:O6"/>
   </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5576,19 +5968,19 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="45.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="1.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="1.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="1.125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="5.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="1.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="1.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="1.109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="5.21875" style="1" customWidth="1"/>
     <col min="8" max="16" width="7" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>156</v>
       </c>
@@ -5612,7 +6004,7 @@
       <c r="O1"/>
       <c r="P1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>122</v>
       </c>
@@ -5631,7 +6023,7 @@
       <c r="O2"/>
       <c r="P2"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
         <v>128</v>
       </c>
@@ -5649,7 +6041,7 @@
       <c r="O3"/>
       <c r="P3"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4" s="13" t="s">
         <v>123</v>
       </c>
@@ -5667,7 +6059,7 @@
       <c r="O4"/>
       <c r="P4"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
         <v>194</v>
       </c>
@@ -5685,7 +6077,7 @@
       <c r="O5"/>
       <c r="P5"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>196</v>
       </c>
@@ -5693,7 +6085,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="12"/>
       <c r="C7" s="12" t="s">
         <v>198</v>
@@ -5709,7 +6101,7 @@
       <c r="O7"/>
       <c r="P7"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" ht="21.6" x14ac:dyDescent="0.25">
       <c r="B8" s="13" t="s">
         <v>199</v>
       </c>
@@ -5727,7 +6119,7 @@
       <c r="O8"/>
       <c r="P8"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" ht="21.6" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
         <v>200</v>
       </c>
@@ -5745,7 +6137,7 @@
       <c r="O9"/>
       <c r="P9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F10" s="1"/>
       <c r="H10"/>
       <c r="I10"/>
@@ -5757,7 +6149,7 @@
       <c r="O10"/>
       <c r="P10"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>156</v>
       </c>
@@ -5776,7 +6168,7 @@
       <c r="O11"/>
       <c r="P11"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>122</v>
       </c>
@@ -5795,7 +6187,7 @@
       <c r="O12"/>
       <c r="P12"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
         <v>128</v>
       </c>
@@ -5813,7 +6205,7 @@
       <c r="O13"/>
       <c r="P13"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14" s="13" t="s">
         <v>166</v>
       </c>
@@ -5831,7 +6223,7 @@
       <c r="O14"/>
       <c r="P14"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B15" s="11"/>
       <c r="C15" s="12" t="s">
         <v>202</v>
@@ -5847,7 +6239,7 @@
       <c r="O15"/>
       <c r="P15"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16" s="12"/>
       <c r="C16" s="12" t="s">
         <v>203</v>
@@ -5863,7 +6255,7 @@
       <c r="O16"/>
       <c r="P16"/>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="12"/>
       <c r="C17" s="12" t="s">
         <v>173</v>
@@ -5879,7 +6271,7 @@
       <c r="O17"/>
       <c r="P17"/>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="13" t="s">
         <v>176</v>
       </c>
@@ -5897,7 +6289,7 @@
       <c r="O18"/>
       <c r="P18"/>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="13" t="s">
         <v>179</v>
       </c>
@@ -5913,7 +6305,7 @@
       <c r="O19"/>
       <c r="P19"/>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="13" t="s">
         <v>205</v>
       </c>
@@ -5931,7 +6323,7 @@
       <c r="O20"/>
       <c r="P20"/>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
       <c r="F21" s="1"/>
@@ -5962,19 +6354,19 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="45.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="1.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="1.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="1.125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="5.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="1.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="1.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="1.109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="5.21875" style="1" customWidth="1"/>
     <col min="8" max="16" width="7" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>156</v>
       </c>
@@ -5988,7 +6380,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>122</v>
       </c>
@@ -5999,7 +6391,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="9" t="s">
         <v>128</v>
@@ -6010,7 +6402,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="13" t="s">
         <v>123</v>
@@ -6021,7 +6413,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="11" t="s">
         <v>209</v>
@@ -6032,7 +6424,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>211</v>
       </c>
@@ -6040,7 +6432,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" customFormat="1" ht="21.6" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="13" t="s">
         <v>199</v>
@@ -6052,7 +6444,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" customFormat="1" ht="21.6" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="13" t="s">
         <v>200</v>
@@ -6064,11 +6456,11 @@
       <c r="E8" s="2"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E9" s="2"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>156</v>
       </c>
@@ -6079,7 +6471,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>122</v>
       </c>
@@ -6090,7 +6482,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="9" t="s">
         <v>128</v>
@@ -6101,7 +6493,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="13" t="s">
         <v>166</v>
@@ -6112,7 +6504,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="11"/>
       <c r="C14" s="12" t="s">
@@ -6121,7 +6513,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12" t="s">
@@ -6131,7 +6523,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12" t="s">
@@ -6141,7 +6533,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="13" t="s">
         <v>176</v>
@@ -6153,7 +6545,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="13" t="s">
         <v>179</v>
@@ -6162,7 +6554,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="13" t="s">
         <v>205</v>
@@ -6174,7 +6566,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -6182,7 +6574,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -6207,19 +6599,19 @@
       <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="45.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="1.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="1.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="1.125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="5.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="1.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="1.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="1.109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="5.21875" style="1" customWidth="1"/>
     <col min="8" max="16" width="7" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>156</v>
       </c>
@@ -6243,7 +6635,7 @@
       <c r="O1"/>
       <c r="P1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>122</v>
       </c>
@@ -6262,7 +6654,7 @@
       <c r="O2"/>
       <c r="P2"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
         <v>128</v>
       </c>
@@ -6280,7 +6672,7 @@
       <c r="O3"/>
       <c r="P3"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
         <v>166</v>
       </c>
@@ -6298,7 +6690,7 @@
       <c r="O4"/>
       <c r="P4"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B5" s="13" t="s">
         <v>123</v>
       </c>
@@ -6316,7 +6708,7 @@
       <c r="O5"/>
       <c r="P5"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>216</v>
       </c>
@@ -6324,7 +6716,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
         <v>142</v>
       </c>
@@ -6342,7 +6734,7 @@
       <c r="O7"/>
       <c r="P7"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8" s="13" t="s">
         <v>146</v>
       </c>
@@ -6360,7 +6752,7 @@
       <c r="O8"/>
       <c r="P8"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F9" s="1"/>
       <c r="H9"/>
       <c r="I9"/>
@@ -6372,7 +6764,7 @@
       <c r="O9"/>
       <c r="P9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F10" s="1"/>
       <c r="H10"/>
       <c r="I10"/>
@@ -6384,7 +6776,7 @@
       <c r="O10"/>
       <c r="P10"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F11" s="1"/>
       <c r="H11"/>
       <c r="I11"/>
@@ -6396,7 +6788,7 @@
       <c r="O11"/>
       <c r="P11"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F12" s="1"/>
       <c r="H12"/>
       <c r="I12"/>
@@ -6408,7 +6800,7 @@
       <c r="O12"/>
       <c r="P12"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F13" s="1"/>
       <c r="H13"/>
       <c r="I13"/>
@@ -6420,7 +6812,7 @@
       <c r="O13"/>
       <c r="P13"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F14" s="1"/>
       <c r="H14"/>
       <c r="I14"/>
@@ -6432,7 +6824,7 @@
       <c r="O14"/>
       <c r="P14"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F15" s="1"/>
       <c r="H15"/>
       <c r="I15"/>
@@ -6444,7 +6836,7 @@
       <c r="O15"/>
       <c r="P15"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F16" s="1"/>
       <c r="H16"/>
       <c r="I16"/>
@@ -6456,7 +6848,7 @@
       <c r="O16"/>
       <c r="P16"/>
     </row>
-    <row r="17" spans="6:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F17" s="1"/>
       <c r="H17"/>
       <c r="I17"/>
@@ -6468,7 +6860,7 @@
       <c r="O17"/>
       <c r="P17"/>
     </row>
-    <row r="18" spans="6:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F18" s="1"/>
       <c r="H18"/>
       <c r="I18"/>
@@ -6480,7 +6872,7 @@
       <c r="O18"/>
       <c r="P18"/>
     </row>
-    <row r="19" spans="6:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F19" s="1"/>
       <c r="H19"/>
       <c r="I19"/>
@@ -6492,7 +6884,7 @@
       <c r="O19"/>
       <c r="P19"/>
     </row>
-    <row r="20" spans="6:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F20" s="1"/>
       <c r="H20"/>
       <c r="I20"/>
@@ -6504,7 +6896,7 @@
       <c r="O20"/>
       <c r="P20"/>
     </row>
-    <row r="21" spans="6:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F21" s="1"/>
       <c r="H21"/>
       <c r="I21"/>
